--- a/Experimentos/teste_geral/Dataset8/statistic_average_fitness.xlsx
+++ b/Experimentos/teste_geral/Dataset8/statistic_average_fitness.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\ESCOLA\2ano\2semestre\INTELIGENCIA-ARTIFICIAL\projeto-IA\Experimentos\teste_geral\Dataset8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A38E6437-01ED-498B-9431-0710A01C0DA0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EFBFD0-BF50-4516-973E-45D9DF3FE8BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-2220" yWindow="7500" windowWidth="14400" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistic_average_fitness" sheetId="1" r:id="rId1"/>
@@ -61,12 +61,6 @@
     <t>Swap</t>
   </si>
   <si>
-    <t>Scrumble</t>
-  </si>
-  <si>
-    <t>Inversion</t>
-  </si>
-  <si>
     <t>Tournament(4)</t>
   </si>
   <si>
@@ -90,11 +84,17 @@
   <si>
     <t>PUZZLE 8 - AVERAGE FITNESS</t>
   </si>
+  <si>
+    <t>Scramble</t>
+  </si>
+  <si>
+    <t>Inversion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -582,10 +582,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Cor1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -645,24 +645,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:L258" totalsRowShown="0">
-  <autoFilter ref="A2:L258"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A2:L258" totalsRowShown="0">
+  <autoFilter ref="A2:L258" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L258">
     <sortCondition ref="I2:I258"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" name="Population size:"/>
-    <tableColumn id="2" name="Max generations:"/>
-    <tableColumn id="3" name="Selection:"/>
-    <tableColumn id="4" name="Recombination:"/>
-    <tableColumn id="5" name="Recombination prob,:"/>
-    <tableColumn id="6" name="Mutation:"/>
-    <tableColumn id="7" name="Mutation prob,:"/>
-    <tableColumn id="8" name="Coluna1"/>
-    <tableColumn id="9" name="Average:"/>
-    <tableColumn id="10" name="StdDev:"/>
-    <tableColumn id="11" name="Time Best av:"/>
-    <tableColumn id="12" name="Time Total av:"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Population size:"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Max generations:"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Selection:"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Recombination:"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Recombination prob,:"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Mutation:"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Mutation prob,:"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Coluna1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Average:"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="StdDev:"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Time Best av:"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Time Total av:"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -964,11 +964,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,20 +988,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1017,16 +1017,16 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -1049,7 +1049,7 @@
         <v>3000</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1084,10 +1084,10 @@
         <v>3000</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
       </c>
       <c r="E4">
         <v>0.8</v>
@@ -1119,10 +1119,10 @@
         <v>3000</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
       </c>
       <c r="E5">
         <v>0.7</v>
@@ -1157,7 +1157,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0.8</v>
@@ -1189,7 +1189,7 @@
         <v>3000</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1227,7 +1227,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0.7</v>
@@ -1259,10 +1259,10 @@
         <v>3000</v>
       </c>
       <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
       </c>
       <c r="E9">
         <v>0.8</v>
@@ -1294,10 +1294,10 @@
         <v>3000</v>
       </c>
       <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
         <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
       </c>
       <c r="E10">
         <v>0.7</v>
@@ -1329,7 +1329,7 @@
         <v>3000</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0.8</v>
@@ -1390,7 +1390,7 @@
       <c r="L12">
         <v>9442.2999999999993</v>
       </c>
-      <c r="O12" s="2"/>
+      <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1400,7 +1400,7 @@
         <v>3000</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -1470,10 +1470,10 @@
         <v>3000</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0.7</v>
@@ -1543,7 +1543,7 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0.7</v>
@@ -1610,7 +1610,7 @@
         <v>3000</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -1645,7 +1645,7 @@
         <v>3000</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -1680,10 +1680,10 @@
         <v>3000</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0.7</v>
@@ -1718,7 +1718,7 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>0.8</v>
@@ -1753,7 +1753,7 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>0.7</v>
@@ -1785,10 +1785,10 @@
         <v>3000</v>
       </c>
       <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
         <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>17</v>
       </c>
       <c r="E24">
         <v>0.7</v>
@@ -1820,10 +1820,10 @@
         <v>3000</v>
       </c>
       <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
         <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>17</v>
       </c>
       <c r="E25">
         <v>0.8</v>
@@ -1855,7 +1855,7 @@
         <v>3000</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
@@ -1925,10 +1925,10 @@
         <v>3000</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0.8</v>
@@ -1960,10 +1960,10 @@
         <v>3000</v>
       </c>
       <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
         <v>15</v>
-      </c>
-      <c r="D29" t="s">
-        <v>17</v>
       </c>
       <c r="E29">
         <v>0.7</v>
@@ -1995,10 +1995,10 @@
         <v>3000</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>0.7</v>
@@ -2030,7 +2030,7 @@
         <v>3000</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
@@ -2065,10 +2065,10 @@
         <v>3000</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>0.8</v>
@@ -2100,10 +2100,10 @@
         <v>3000</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>0.7</v>
@@ -2135,10 +2135,10 @@
         <v>3000</v>
       </c>
       <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
         <v>15</v>
-      </c>
-      <c r="D34" t="s">
-        <v>17</v>
       </c>
       <c r="E34">
         <v>0.8</v>
@@ -2243,7 +2243,7 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>0.7</v>
@@ -2278,7 +2278,7 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>0.8</v>
@@ -2310,10 +2310,10 @@
         <v>3000</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E39">
         <v>0.8</v>
@@ -2415,10 +2415,10 @@
         <v>3000</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>0.7</v>
@@ -2450,10 +2450,10 @@
         <v>3000</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E43">
         <v>0.7</v>
@@ -2485,10 +2485,10 @@
         <v>3000</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>0.7</v>
@@ -2520,10 +2520,10 @@
         <v>3000</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E45">
         <v>0.8</v>
@@ -2555,10 +2555,10 @@
         <v>3000</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>0.7</v>
@@ -2590,10 +2590,10 @@
         <v>3000</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>0.8</v>
@@ -2625,10 +2625,10 @@
         <v>3000</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>0.8</v>
@@ -2663,28 +2663,28 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E49">
         <v>0.8</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G49">
         <v>0.2</v>
       </c>
       <c r="I49">
-        <v>534.93333333333305</v>
+        <v>549.73333333333301</v>
       </c>
       <c r="J49">
-        <v>23.808868562412201</v>
+        <v>29.5419851886918</v>
       </c>
       <c r="K49">
-        <v>19580.633333333299</v>
+        <v>14019.5333333333</v>
       </c>
       <c r="L49">
-        <v>20354.733333333301</v>
+        <v>15427.366666666599</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2704,22 +2704,22 @@
         <v>0.8</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G50">
         <v>0.2</v>
       </c>
       <c r="I50">
-        <v>549.73333333333301</v>
+        <v>562.6</v>
       </c>
       <c r="J50">
-        <v>29.5419851886918</v>
+        <v>83.764988708489199</v>
       </c>
       <c r="K50">
-        <v>14019.5333333333</v>
+        <v>16046.233333333301</v>
       </c>
       <c r="L50">
-        <v>15427.366666666599</v>
+        <v>17733.266666666601</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2733,28 +2733,28 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E51">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G51">
         <v>0.2</v>
       </c>
       <c r="I51">
-        <v>558.26666666666597</v>
+        <v>572.46666666666601</v>
       </c>
       <c r="J51">
-        <v>29.994369842059001</v>
+        <v>30.4835839246124</v>
       </c>
       <c r="K51">
-        <v>17661.3</v>
+        <v>22271.3</v>
       </c>
       <c r="L51">
-        <v>18553.5333333333</v>
+        <v>23339.266666666601</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2768,28 +2768,28 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E52">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G52">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I52">
-        <v>579.73333333333301</v>
+        <v>575.13333333333298</v>
       </c>
       <c r="J52">
-        <v>134.51417108328101</v>
+        <v>26.1517792043974</v>
       </c>
       <c r="K52">
-        <v>14015.0666666666</v>
+        <v>19353.633333333299</v>
       </c>
       <c r="L52">
-        <v>15441.4</v>
+        <v>23571.4</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2809,27 +2809,27 @@
         <v>0.7</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G53">
         <v>0.2</v>
       </c>
       <c r="I53">
-        <v>607.79999999999995</v>
+        <v>576.79999999999995</v>
       </c>
       <c r="J53">
-        <v>34.661602194166697</v>
+        <v>32.760138379846097</v>
       </c>
       <c r="K53">
-        <v>12448.3</v>
+        <v>16066.0666666666</v>
       </c>
       <c r="L53">
-        <v>14101.5333333333</v>
+        <v>17560.599999999999</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B54">
         <v>3000</v>
@@ -2838,33 +2838,33 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E54">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G54">
         <v>0.2</v>
       </c>
       <c r="I54">
-        <v>609.66666666666595</v>
+        <v>579.73333333333301</v>
       </c>
       <c r="J54">
-        <v>32.729531347427198</v>
+        <v>35.817066075018197</v>
       </c>
       <c r="K54">
-        <v>7339.6</v>
+        <v>20847.433333333302</v>
       </c>
       <c r="L54">
-        <v>7586.2</v>
+        <v>22242.9</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B55">
         <v>3000</v>
@@ -2873,28 +2873,28 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E55">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G55">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I55">
-        <v>619.13333333333298</v>
+        <v>594.53333333333296</v>
       </c>
       <c r="J55">
-        <v>31.570802263413501</v>
+        <v>32.499982905978399</v>
       </c>
       <c r="K55">
-        <v>9260.9666666666599</v>
+        <v>18746.233333333301</v>
       </c>
       <c r="L55">
-        <v>9678.8666666666595</v>
+        <v>22591.5333333333</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2905,36 +2905,36 @@
         <v>3000</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
         <v>10</v>
       </c>
       <c r="E56">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G56">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I56">
-        <v>621.53333333333296</v>
+        <v>599.93333333333305</v>
       </c>
       <c r="J56">
-        <v>32.699371383696104</v>
+        <v>34.0841442446321</v>
       </c>
       <c r="K56">
-        <v>14058.4666666666</v>
+        <v>17822.5666666666</v>
       </c>
       <c r="L56">
-        <v>14985.4333333333</v>
+        <v>18918.5666666666</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B57">
         <v>3000</v>
@@ -2949,22 +2949,22 @@
         <v>0.7</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G57">
         <v>0.2</v>
       </c>
       <c r="I57">
-        <v>627.06666666666604</v>
+        <v>607.79999999999995</v>
       </c>
       <c r="J57">
-        <v>32.023879978679801</v>
+        <v>34.661602194166697</v>
       </c>
       <c r="K57">
-        <v>6794.3666666666604</v>
+        <v>12448.3</v>
       </c>
       <c r="L57">
-        <v>7176.5333333333301</v>
+        <v>14101.5333333333</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2978,28 +2978,28 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E58">
         <v>0.8</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G58">
         <v>0.2</v>
       </c>
       <c r="I58">
-        <v>642.06666666666604</v>
+        <v>622.53333333333296</v>
       </c>
       <c r="J58">
-        <v>24.2623622556053</v>
+        <v>32.846850009636398</v>
       </c>
       <c r="K58">
-        <v>18773.166666666599</v>
+        <v>21255.933333333302</v>
       </c>
       <c r="L58">
-        <v>19921.5333333333</v>
+        <v>23355.933333333302</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -3010,31 +3010,31 @@
         <v>3000</v>
       </c>
       <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
         <v>15</v>
       </c>
-      <c r="D59" t="s">
-        <v>10</v>
-      </c>
       <c r="E59">
         <v>0.7</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G59">
         <v>0.4</v>
       </c>
       <c r="I59">
-        <v>642.73333333333301</v>
+        <v>626.06666666666604</v>
       </c>
       <c r="J59">
-        <v>30.157291360833799</v>
+        <v>24.448494613961099</v>
       </c>
       <c r="K59">
-        <v>14222.8</v>
+        <v>16817.900000000001</v>
       </c>
       <c r="L59">
-        <v>14739.3</v>
+        <v>22124.966666666602</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3045,31 +3045,31 @@
         <v>3000</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E60">
         <v>0.7</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G60">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I60">
-        <v>643.53333333333296</v>
+        <v>629.20000000000005</v>
       </c>
       <c r="J60">
-        <v>29.775530595141699</v>
+        <v>38.924199841914898</v>
       </c>
       <c r="K60">
-        <v>8884.9666666666599</v>
+        <v>7250.2</v>
       </c>
       <c r="L60">
-        <v>9203.6666666666606</v>
+        <v>7680.3333333333303</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3080,31 +3080,31 @@
         <v>3000</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E61">
         <v>0.7</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G61">
         <v>0.2</v>
       </c>
       <c r="I61">
-        <v>646.26666666666597</v>
+        <v>629.4</v>
       </c>
       <c r="J61">
-        <v>138.83585832037599</v>
+        <v>45.7067464021085</v>
       </c>
       <c r="K61">
-        <v>14930.2</v>
+        <v>12539.4</v>
       </c>
       <c r="L61">
-        <v>15803.0666666666</v>
+        <v>14516.733333333301</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3115,31 +3115,31 @@
         <v>3000</v>
       </c>
       <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
         <v>15</v>
       </c>
-      <c r="D62" t="s">
-        <v>17</v>
-      </c>
       <c r="E62">
         <v>0.8</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G62">
         <v>0.4</v>
       </c>
       <c r="I62">
-        <v>653.26666666666597</v>
+        <v>633.66666666666595</v>
       </c>
       <c r="J62">
-        <v>27.883009561778302</v>
+        <v>21.392106540082001</v>
       </c>
       <c r="K62">
-        <v>18846.466666666602</v>
+        <v>19022.0666666666</v>
       </c>
       <c r="L62">
-        <v>19360.666666666599</v>
+        <v>22868.5</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3150,31 +3150,31 @@
         <v>3000</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E63">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G63">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I63">
-        <v>655.73333333333301</v>
+        <v>634.26666666666597</v>
       </c>
       <c r="J63">
-        <v>31.894548471834799</v>
+        <v>36.924186593011797</v>
       </c>
       <c r="K63">
-        <v>14859.5333333333</v>
+        <v>12832.6</v>
       </c>
       <c r="L63">
-        <v>19090.5</v>
+        <v>14513.266666666599</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3185,36 +3185,36 @@
         <v>3000</v>
       </c>
       <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
         <v>15</v>
       </c>
-      <c r="D64" t="s">
-        <v>18</v>
-      </c>
       <c r="E64">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G64">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I64">
-        <v>666.33333333333303</v>
+        <v>639.4</v>
       </c>
       <c r="J64">
-        <v>45.671532587476001</v>
+        <v>25.717179731326102</v>
       </c>
       <c r="K64">
-        <v>9282.1</v>
+        <v>21218.433333333302</v>
       </c>
       <c r="L64">
-        <v>11405.5333333333</v>
+        <v>22082.233333333301</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B65">
         <v>3000</v>
@@ -3223,33 +3223,33 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E65">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G65">
         <v>0.2</v>
       </c>
       <c r="I65">
-        <v>667.93333333333305</v>
+        <v>646.13333333333298</v>
       </c>
       <c r="J65">
-        <v>40.478746137805302</v>
+        <v>32.594205347303998</v>
       </c>
       <c r="K65">
-        <v>6193.5666666666602</v>
+        <v>19613.966666666602</v>
       </c>
       <c r="L65">
-        <v>7095.2666666666601</v>
+        <v>22287.466666666602</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B66">
         <v>3000</v>
@@ -3258,28 +3258,28 @@
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E66">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G66">
         <v>0.2</v>
       </c>
       <c r="I66">
-        <v>673.06666666666604</v>
+        <v>647.20000000000005</v>
       </c>
       <c r="J66">
-        <v>26.606933098139798</v>
+        <v>39.074629450151697</v>
       </c>
       <c r="K66">
-        <v>18066.833333333299</v>
+        <v>9143.6666666666606</v>
       </c>
       <c r="L66">
-        <v>18840.266666666601</v>
+        <v>9505.7666666666591</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3290,71 +3290,71 @@
         <v>3000</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E67">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G67">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I67">
-        <v>674.33333333333303</v>
+        <v>648</v>
       </c>
       <c r="J67">
-        <v>59.739620204870903</v>
+        <v>33.858529206095099</v>
       </c>
       <c r="K67">
-        <v>5449.8666666666604</v>
+        <v>8848.7000000000007</v>
       </c>
       <c r="L67">
-        <v>5921.3666666666604</v>
+        <v>9558.2666666666591</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B68">
         <v>3000</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E68">
         <v>0.7</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G68">
         <v>0.4</v>
       </c>
       <c r="I68">
-        <v>675.73333333333301</v>
+        <v>649.26666666666597</v>
       </c>
       <c r="J68">
-        <v>23.808868562412201</v>
+        <v>80.742361179797598</v>
       </c>
       <c r="K68">
-        <v>18033</v>
+        <v>7130.9333333333298</v>
       </c>
       <c r="L68">
-        <v>18752.433333333302</v>
+        <v>7694.7333333333299</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B69">
         <v>3000</v>
@@ -3363,28 +3363,28 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E69">
         <v>0.7</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G69">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I69">
-        <v>684.86666666666599</v>
+        <v>653.33333333333303</v>
       </c>
       <c r="J69">
-        <v>45.345145519914503</v>
+        <v>33.808611657715502</v>
       </c>
       <c r="K69">
-        <v>13625.6</v>
+        <v>8386.7666666666591</v>
       </c>
       <c r="L69">
-        <v>17871.099999999999</v>
+        <v>8916.0333333333292</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3395,42 +3395,42 @@
         <v>3000</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E70">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G70">
         <v>0.2</v>
       </c>
       <c r="I70">
-        <v>698</v>
+        <v>653.53333333333296</v>
       </c>
       <c r="J70">
-        <v>33.980386499665698</v>
+        <v>33.639989430570402</v>
       </c>
       <c r="K70">
-        <v>4883.3999999999996</v>
+        <v>8708.5</v>
       </c>
       <c r="L70">
-        <v>5568.9333333333298</v>
+        <v>9551.5</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B71">
         <v>3000</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s">
         <v>10</v>
@@ -3439,22 +3439,22 @@
         <v>0.8</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G71">
         <v>0.4</v>
       </c>
       <c r="I71">
-        <v>698.46666666666601</v>
+        <v>654.26666666666597</v>
       </c>
       <c r="J71">
-        <v>31.8441342932868</v>
+        <v>36.637806824220299</v>
       </c>
       <c r="K71">
-        <v>7062.4</v>
+        <v>13004.4666666666</v>
       </c>
       <c r="L71">
-        <v>7445.1333333333296</v>
+        <v>14661.0666666666</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3465,10 +3465,10 @@
         <v>3000</v>
       </c>
       <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
         <v>15</v>
-      </c>
-      <c r="D72" t="s">
-        <v>10</v>
       </c>
       <c r="E72">
         <v>0.8</v>
@@ -3480,51 +3480,51 @@
         <v>0.4</v>
       </c>
       <c r="I72">
-        <v>700.93333333333305</v>
+        <v>655.73333333333301</v>
       </c>
       <c r="J72">
-        <v>44.913942403470003</v>
+        <v>31.894548471834799</v>
       </c>
       <c r="K72">
-        <v>10630.5333333333</v>
+        <v>14859.5333333333</v>
       </c>
       <c r="L72">
-        <v>14328.766666666599</v>
+        <v>19090.5</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B73">
         <v>3000</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E73">
         <v>0.7</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G73">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I73">
-        <v>701.4</v>
+        <v>657.13333333333298</v>
       </c>
       <c r="J73">
-        <v>35.202840794458602</v>
+        <v>41.776176092228503</v>
       </c>
       <c r="K73">
-        <v>6211.9666666666599</v>
+        <v>21064.9</v>
       </c>
       <c r="L73">
-        <v>7015.4333333333298</v>
+        <v>21942.6</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3535,31 +3535,31 @@
         <v>3000</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E74">
         <v>0.8</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G74">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I74">
-        <v>702.73333333333301</v>
+        <v>658.06666666666604</v>
       </c>
       <c r="J74">
-        <v>37.889253826851103</v>
+        <v>33.119916800754297</v>
       </c>
       <c r="K74">
-        <v>12344.6</v>
+        <v>12082.733333333301</v>
       </c>
       <c r="L74">
-        <v>19202.433333333302</v>
+        <v>14205.6333333333</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3570,31 +3570,31 @@
         <v>3000</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E75">
         <v>0.7</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G75">
         <v>0.2</v>
       </c>
       <c r="I75">
-        <v>703.4</v>
+        <v>662.93333333333305</v>
       </c>
       <c r="J75">
-        <v>26.352229507197301</v>
+        <v>36.058224520288697</v>
       </c>
       <c r="K75">
-        <v>6993.7</v>
+        <v>6443.1666666666597</v>
       </c>
       <c r="L75">
-        <v>7307.8</v>
+        <v>7294</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3605,31 +3605,31 @@
         <v>3000</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E76">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G76">
         <v>0.2</v>
       </c>
       <c r="I76">
-        <v>705.6</v>
+        <v>664.06666666666604</v>
       </c>
       <c r="J76">
-        <v>29.030558612147502</v>
+        <v>37.286220272671997</v>
       </c>
       <c r="K76">
-        <v>4991.2666666666601</v>
+        <v>6648.8666666666604</v>
       </c>
       <c r="L76">
-        <v>5647.7</v>
+        <v>7276.6</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3640,31 +3640,31 @@
         <v>3000</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E77">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G77">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I77">
-        <v>706.13333333333298</v>
+        <v>666.33333333333303</v>
       </c>
       <c r="J77">
-        <v>38.791522556123198</v>
+        <v>45.671532587476001</v>
       </c>
       <c r="K77">
-        <v>13958.0333333333</v>
+        <v>9282.1</v>
       </c>
       <c r="L77">
-        <v>14998.1333333333</v>
+        <v>11405.5333333333</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3675,31 +3675,31 @@
         <v>3000</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
         <v>10</v>
       </c>
       <c r="E78">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G78">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I78">
-        <v>718.53333333333296</v>
+        <v>667.93333333333305</v>
       </c>
       <c r="J78">
-        <v>29.5474007129034</v>
+        <v>40.478746137805302</v>
       </c>
       <c r="K78">
-        <v>6894.0333333333301</v>
+        <v>6193.5666666666602</v>
       </c>
       <c r="L78">
-        <v>7281.9333333333298</v>
+        <v>7095.2666666666601</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3710,45 +3710,45 @@
         <v>3000</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E79">
         <v>0.8</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G79">
         <v>0.2</v>
       </c>
       <c r="I79">
-        <v>722</v>
+        <v>671.86666666666599</v>
       </c>
       <c r="J79">
-        <v>30.793938797540399</v>
+        <v>30.558941226568798</v>
       </c>
       <c r="K79">
-        <v>9161.3333333333303</v>
+        <v>6236.1333333333296</v>
       </c>
       <c r="L79">
-        <v>9719.7000000000007</v>
+        <v>7299.5333333333301</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B80">
         <v>3000</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E80">
         <v>0.7</v>
@@ -3760,51 +3760,51 @@
         <v>0.4</v>
       </c>
       <c r="I80">
-        <v>726.6</v>
+        <v>674.33333333333303</v>
       </c>
       <c r="J80">
-        <v>33.740776517442498</v>
+        <v>59.739620204870903</v>
       </c>
       <c r="K80">
-        <v>11450.9666666666</v>
+        <v>5449.8666666666604</v>
       </c>
       <c r="L80">
-        <v>14356.5333333333</v>
+        <v>5921.3666666666604</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B81">
         <v>3000</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E81">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G81">
         <v>0.2</v>
       </c>
       <c r="I81">
-        <v>729.06666666666604</v>
+        <v>680.53333333333296</v>
       </c>
       <c r="J81">
-        <v>32.388200869383802</v>
+        <v>42.829688560882801</v>
       </c>
       <c r="K81">
-        <v>10741.6333333333</v>
+        <v>6602.9333333333298</v>
       </c>
       <c r="L81">
-        <v>17939.866666666599</v>
+        <v>7364.7</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3815,136 +3815,136 @@
         <v>3000</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E82">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G82">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I82">
-        <v>733.93333333333305</v>
+        <v>681.13333333333298</v>
       </c>
       <c r="J82">
-        <v>38.848366189011799</v>
+        <v>32.593182654591303</v>
       </c>
       <c r="K82">
-        <v>3409.9</v>
+        <v>8557.6666666666606</v>
       </c>
       <c r="L82">
-        <v>5965.1666666666597</v>
+        <v>9255.2000000000007</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B83">
         <v>3000</v>
       </c>
       <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" t="s">
         <v>15</v>
       </c>
-      <c r="D83" t="s">
-        <v>17</v>
-      </c>
       <c r="E83">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G83">
         <v>0.4</v>
       </c>
       <c r="I83">
-        <v>735.26666666666597</v>
+        <v>684.86666666666599</v>
       </c>
       <c r="J83">
-        <v>35.147245822238801</v>
+        <v>45.345145519914503</v>
       </c>
       <c r="K83">
-        <v>9392.5333333333292</v>
+        <v>13625.6</v>
       </c>
       <c r="L83">
-        <v>9923.7999999999993</v>
+        <v>17871.099999999999</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B84">
         <v>3000</v>
       </c>
       <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" t="s">
         <v>15</v>
       </c>
-      <c r="D84" t="s">
-        <v>17</v>
-      </c>
       <c r="E84">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G84">
         <v>0.4</v>
       </c>
       <c r="I84">
-        <v>736.46666666666601</v>
+        <v>684.93333333333305</v>
       </c>
       <c r="J84">
-        <v>30.452950960821799</v>
+        <v>29.437995100814099</v>
       </c>
       <c r="K84">
-        <v>9127.2999999999993</v>
+        <v>20196</v>
       </c>
       <c r="L84">
-        <v>9450</v>
+        <v>24483.666666666599</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B85">
         <v>3000</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
         <v>10</v>
       </c>
       <c r="E85">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G85">
         <v>0.2</v>
       </c>
       <c r="I85">
-        <v>739.2</v>
+        <v>685</v>
       </c>
       <c r="J85">
-        <v>56.8567791326006</v>
+        <v>29.178759397890701</v>
       </c>
       <c r="K85">
-        <v>8259.7999999999993</v>
+        <v>8656.3666666666595</v>
       </c>
       <c r="L85">
-        <v>14312.7</v>
+        <v>9303</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -3955,7 +3955,7 @@
         <v>3000</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
         <v>10</v>
@@ -3964,22 +3964,22 @@
         <v>0.7</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G86">
         <v>0.4</v>
       </c>
       <c r="I86">
-        <v>741</v>
+        <v>689.06666666666604</v>
       </c>
       <c r="J86">
-        <v>42.321783201246703</v>
+        <v>28.395930850896299</v>
       </c>
       <c r="K86">
-        <v>14560.166666666601</v>
+        <v>11746.5333333333</v>
       </c>
       <c r="L86">
-        <v>15299.5666666666</v>
+        <v>13985.6</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3993,112 +3993,112 @@
         <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E87">
         <v>0.8</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G87">
         <v>0.2</v>
       </c>
       <c r="I87">
-        <v>741.86666666666599</v>
+        <v>690.53333333333296</v>
       </c>
       <c r="J87">
-        <v>104.170287937054</v>
+        <v>41.888529323537803</v>
       </c>
       <c r="K87">
-        <v>7628.7666666666601</v>
+        <v>10832.0666666666</v>
       </c>
       <c r="L87">
-        <v>8134.7333333333299</v>
+        <v>11824.9</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B88">
         <v>3000</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E88">
         <v>0.7</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G88">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I88">
-        <v>744.6</v>
+        <v>693</v>
       </c>
       <c r="J88">
-        <v>31.3141075768308</v>
+        <v>36.110017077444397</v>
       </c>
       <c r="K88">
-        <v>8769.3333333333303</v>
+        <v>11641.5</v>
       </c>
       <c r="L88">
-        <v>9236</v>
+        <v>14307.5666666666</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B89">
         <v>3000</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E89">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G89">
         <v>0.4</v>
       </c>
       <c r="I89">
-        <v>757.26666666666597</v>
+        <v>693.2</v>
       </c>
       <c r="J89">
-        <v>33.966584887045798</v>
+        <v>31.354319213360899</v>
       </c>
       <c r="K89">
-        <v>8281.9</v>
+        <v>13489.5666666666</v>
       </c>
       <c r="L89">
-        <v>9325.2999999999993</v>
+        <v>18585.400000000001</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B90">
         <v>3000</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E90">
         <v>0.7</v>
@@ -4110,62 +4110,62 @@
         <v>0.2</v>
       </c>
       <c r="I90">
-        <v>758</v>
+        <v>698</v>
       </c>
       <c r="J90">
-        <v>39.442785567621002</v>
+        <v>33.980386499665698</v>
       </c>
       <c r="K90">
-        <v>7560.0333333333301</v>
+        <v>4883.3999999999996</v>
       </c>
       <c r="L90">
-        <v>13780.266666666599</v>
+        <v>5568.9333333333298</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B91">
         <v>3000</v>
       </c>
       <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" t="s">
         <v>15</v>
       </c>
-      <c r="D91" t="s">
-        <v>17</v>
-      </c>
       <c r="E91">
         <v>0.8</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G91">
         <v>0.4</v>
       </c>
       <c r="I91">
-        <v>758.73333333333301</v>
+        <v>699.26666666666597</v>
       </c>
       <c r="J91">
-        <v>44.140633837265497</v>
+        <v>38.593551562692703</v>
       </c>
       <c r="K91">
-        <v>9767.8666666666595</v>
+        <v>11324.5333333333</v>
       </c>
       <c r="L91">
-        <v>18589.400000000001</v>
+        <v>11968.5333333333</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B92">
         <v>3000</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
         <v>10</v>
@@ -4180,16 +4180,16 @@
         <v>0.4</v>
       </c>
       <c r="I92">
-        <v>764.86666666666599</v>
+        <v>700.93333333333305</v>
       </c>
       <c r="J92">
-        <v>39.037361021917903</v>
+        <v>44.913942403470003</v>
       </c>
       <c r="K92">
-        <v>5379.9</v>
+        <v>10630.5333333333</v>
       </c>
       <c r="L92">
-        <v>7017.4</v>
+        <v>14328.766666666599</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -4203,98 +4203,98 @@
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E93">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G93">
         <v>0.4</v>
       </c>
       <c r="I93">
-        <v>766.06666666666604</v>
+        <v>701.33333333333303</v>
       </c>
       <c r="J93">
-        <v>37.436108534705099</v>
+        <v>25.441872747281899</v>
       </c>
       <c r="K93">
-        <v>7798.0333333333301</v>
+        <v>8564.1333333333296</v>
       </c>
       <c r="L93">
-        <v>8911.8333333333303</v>
+        <v>11833.266666666599</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B94">
         <v>3000</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E94">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G94">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I94">
-        <v>773.93333333333305</v>
+        <v>701.4</v>
       </c>
       <c r="J94">
-        <v>37.903327323893599</v>
+        <v>35.202840794458602</v>
       </c>
       <c r="K94">
-        <v>18835.5333333333</v>
+        <v>6211.9666666666599</v>
       </c>
       <c r="L94">
-        <v>19583.466666666602</v>
+        <v>7015.4333333333298</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B95">
         <v>3000</v>
       </c>
       <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" t="s">
         <v>15</v>
       </c>
-      <c r="D95" t="s">
-        <v>10</v>
-      </c>
       <c r="E95">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F95" t="s">
         <v>11</v>
       </c>
       <c r="G95">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I95">
-        <v>778.86666666666599</v>
+        <v>702.73333333333301</v>
       </c>
       <c r="J95">
-        <v>40.158629901374297</v>
+        <v>37.889253826851103</v>
       </c>
       <c r="K95">
-        <v>4695.3</v>
+        <v>12344.6</v>
       </c>
       <c r="L95">
-        <v>6855.1333333333296</v>
+        <v>19202.433333333302</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -4305,10 +4305,10 @@
         <v>3000</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E96">
         <v>0.8</v>
@@ -4320,16 +4320,16 @@
         <v>0.2</v>
       </c>
       <c r="I96">
-        <v>782.73333333333301</v>
+        <v>705.6</v>
       </c>
       <c r="J96">
-        <v>36.596842608193498</v>
+        <v>29.030558612147502</v>
       </c>
       <c r="K96">
-        <v>7693.1666666666597</v>
+        <v>4991.2666666666601</v>
       </c>
       <c r="L96">
-        <v>9429.2999999999993</v>
+        <v>5647.7</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -4340,31 +4340,31 @@
         <v>3000</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E97">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G97">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I97">
-        <v>784</v>
+        <v>708.2</v>
       </c>
       <c r="J97">
-        <v>34.4751117958061</v>
+        <v>32.681697222349598</v>
       </c>
       <c r="K97">
-        <v>8932.8333333333303</v>
+        <v>11152.9</v>
       </c>
       <c r="L97">
-        <v>18364.266666666601</v>
+        <v>14142.8</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -4375,77 +4375,77 @@
         <v>3000</v>
       </c>
       <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" t="s">
         <v>15</v>
       </c>
-      <c r="D98" t="s">
-        <v>10</v>
-      </c>
       <c r="E98">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G98">
         <v>0.4</v>
       </c>
       <c r="I98">
-        <v>785.33333333333303</v>
+        <v>709.46666666666601</v>
       </c>
       <c r="J98">
-        <v>34.410592684359401</v>
+        <v>25.271503494823701</v>
       </c>
       <c r="K98">
-        <v>7149.8666666666604</v>
+        <v>7439.9666666666599</v>
       </c>
       <c r="L98">
-        <v>7585.3666666666604</v>
+        <v>9351.0333333333292</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B99">
         <v>3000</v>
       </c>
       <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" t="s">
         <v>15</v>
       </c>
-      <c r="D99" t="s">
-        <v>17</v>
-      </c>
       <c r="E99">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G99">
         <v>0.2</v>
       </c>
       <c r="I99">
-        <v>785.4</v>
+        <v>709.53333333333296</v>
       </c>
       <c r="J99">
-        <v>45.516736848475098</v>
+        <v>43.795535033709598</v>
       </c>
       <c r="K99">
-        <v>8527.4333333333307</v>
+        <v>8155.9333333333298</v>
       </c>
       <c r="L99">
-        <v>18224.400000000001</v>
+        <v>9168.9</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B100">
         <v>3000</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
         <v>10</v>
@@ -4454,57 +4454,57 @@
         <v>0.8</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G100">
         <v>0.2</v>
       </c>
       <c r="I100">
-        <v>788.4</v>
+        <v>711.4</v>
       </c>
       <c r="J100">
-        <v>40.161009283466299</v>
+        <v>240.55943132623099</v>
       </c>
       <c r="K100">
-        <v>5060.1666666666597</v>
+        <v>15914.5666666666</v>
       </c>
       <c r="L100">
-        <v>6943.3</v>
+        <v>17583.099999999999</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B101">
         <v>3000</v>
       </c>
       <c r="C101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" t="s">
         <v>15</v>
       </c>
-      <c r="D101" t="s">
-        <v>17</v>
-      </c>
       <c r="E101">
         <v>0.7</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G101">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I101">
-        <v>798.8</v>
+        <v>712.2</v>
       </c>
       <c r="J101">
-        <v>29.775157430314199</v>
+        <v>43.107153312027698</v>
       </c>
       <c r="K101">
-        <v>9996.9333333333307</v>
+        <v>10593.266666666599</v>
       </c>
       <c r="L101">
-        <v>18293.733333333301</v>
+        <v>11432.5333333333</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -4515,66 +4515,66 @@
         <v>3000</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E102">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G102">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I102">
-        <v>799</v>
+        <v>715.4</v>
       </c>
       <c r="J102">
-        <v>48.054829795418698</v>
+        <v>36.1483978437034</v>
       </c>
       <c r="K102">
-        <v>7467.7</v>
+        <v>8587.6</v>
       </c>
       <c r="L102">
-        <v>9074.2666666666591</v>
+        <v>11813.6</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B103">
         <v>3000</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E103">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G103">
         <v>0.4</v>
       </c>
       <c r="I103">
-        <v>801.13333333333298</v>
+        <v>716.6</v>
       </c>
       <c r="J103">
-        <v>29.851558678828699</v>
+        <v>43.732977640829901</v>
       </c>
       <c r="K103">
-        <v>17679.166666666599</v>
+        <v>7715</v>
       </c>
       <c r="L103">
-        <v>18759.433333333302</v>
+        <v>9660.1333333333296</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -4585,171 +4585,171 @@
         <v>3000</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E104">
         <v>0.7</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G104">
         <v>0.4</v>
       </c>
       <c r="I104">
-        <v>803.93333333333305</v>
+        <v>724.66666666666595</v>
       </c>
       <c r="J104">
-        <v>37.889253826851103</v>
+        <v>30.5344977943891</v>
       </c>
       <c r="K104">
-        <v>5356.2333333333299</v>
+        <v>8222.9666666666599</v>
       </c>
       <c r="L104">
-        <v>9015.5666666666602</v>
+        <v>9383.4666666666599</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B105">
         <v>3000</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E105">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G105">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I105">
-        <v>806.06666666666604</v>
+        <v>725.33333333333303</v>
       </c>
       <c r="J105">
-        <v>40.406215143492702</v>
+        <v>29.057796811794798</v>
       </c>
       <c r="K105">
-        <v>5703.6</v>
+        <v>8716.2333333333299</v>
       </c>
       <c r="L105">
-        <v>9478.5666666666602</v>
+        <v>13804.733333333301</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B106">
         <v>3000</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D106" t="s">
         <v>10</v>
       </c>
       <c r="E106">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G106">
         <v>0.2</v>
       </c>
       <c r="I106">
-        <v>811.2</v>
+        <v>725.73333333333301</v>
       </c>
       <c r="J106">
-        <v>46.3741307196156</v>
+        <v>40.745497365421301</v>
       </c>
       <c r="K106">
-        <v>4784.5666666666602</v>
+        <v>8520.7999999999993</v>
       </c>
       <c r="L106">
-        <v>6771.5</v>
+        <v>14016.6</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B107">
         <v>3000</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E107">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F107" t="s">
         <v>11</v>
       </c>
       <c r="G107">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I107">
-        <v>814.53333333333296</v>
+        <v>726.6</v>
       </c>
       <c r="J107">
-        <v>36.029370734937203</v>
+        <v>33.740776517442498</v>
       </c>
       <c r="K107">
-        <v>6658.3666666666604</v>
+        <v>11450.9666666666</v>
       </c>
       <c r="L107">
-        <v>9389.2333333333299</v>
+        <v>14356.5333333333</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B108">
         <v>3000</v>
       </c>
       <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" t="s">
         <v>15</v>
       </c>
-      <c r="D108" t="s">
-        <v>10</v>
-      </c>
       <c r="E108">
         <v>0.7</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G108">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I108">
-        <v>818.13333333333298</v>
+        <v>729.06666666666604</v>
       </c>
       <c r="J108">
-        <v>31.232177139752601</v>
+        <v>32.388200869383802</v>
       </c>
       <c r="K108">
-        <v>6982.0666666666602</v>
+        <v>10741.6333333333</v>
       </c>
       <c r="L108">
-        <v>7395.5333333333301</v>
+        <v>17939.866666666599</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -4760,31 +4760,31 @@
         <v>3000</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D109" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E109">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G109">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I109">
-        <v>820.2</v>
+        <v>729.13333333333298</v>
       </c>
       <c r="J109">
-        <v>34.769143408104398</v>
+        <v>36.739382442036501</v>
       </c>
       <c r="K109">
-        <v>6469.7</v>
+        <v>7987.2</v>
       </c>
       <c r="L109">
-        <v>8943.6333333333296</v>
+        <v>9471.3333333333303</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -4795,241 +4795,241 @@
         <v>3000</v>
       </c>
       <c r="C110" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D110" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E110">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G110">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I110">
-        <v>821.66666666666595</v>
+        <v>730.06666666666604</v>
       </c>
       <c r="J110">
-        <v>41.812544635418703</v>
+        <v>37.478823650459198</v>
       </c>
       <c r="K110">
-        <v>7280.6333333333296</v>
+        <v>10649.9333333333</v>
       </c>
       <c r="L110">
-        <v>13258.5</v>
+        <v>13836.3</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B111">
         <v>3000</v>
       </c>
       <c r="C111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" t="s">
         <v>15</v>
       </c>
-      <c r="D111" t="s">
-        <v>16</v>
-      </c>
       <c r="E111">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G111">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I111">
-        <v>822.66666666666595</v>
+        <v>731.73333333333301</v>
       </c>
       <c r="J111">
-        <v>33.571151636817902</v>
+        <v>39.701329392799302</v>
       </c>
       <c r="K111">
-        <v>6140.2333333333299</v>
+        <v>9253.9666666666599</v>
       </c>
       <c r="L111">
-        <v>13130.266666666599</v>
+        <v>11404.9666666666</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B112">
         <v>3000</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E112">
         <v>0.8</v>
       </c>
       <c r="F112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G112">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I112">
-        <v>825.93333333333305</v>
+        <v>733.93333333333305</v>
       </c>
       <c r="J112">
-        <v>40.547859239285202</v>
+        <v>38.848366189011799</v>
       </c>
       <c r="K112">
-        <v>12468.666666666601</v>
+        <v>3409.9</v>
       </c>
       <c r="L112">
-        <v>14441.8</v>
+        <v>5965.1666666666597</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B113">
         <v>3000</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D113" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E113">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G113">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I113">
-        <v>831.33333333333303</v>
+        <v>734.46666666666601</v>
       </c>
       <c r="J113">
-        <v>40.435408025914803</v>
+        <v>36.400305249025301</v>
       </c>
       <c r="K113">
-        <v>7201.8</v>
+        <v>7301.9</v>
       </c>
       <c r="L113">
-        <v>12919</v>
+        <v>9228.4666666666599</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B114">
         <v>3000</v>
       </c>
       <c r="C114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" t="s">
         <v>15</v>
       </c>
-      <c r="D114" t="s">
-        <v>16</v>
-      </c>
       <c r="E114">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G114">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I114">
-        <v>833.53333333333296</v>
+        <v>738.13333333333298</v>
       </c>
       <c r="J114">
-        <v>41.181495304997703</v>
+        <v>34.9282439040702</v>
       </c>
       <c r="K114">
-        <v>3728.3</v>
+        <v>16900.133333333299</v>
       </c>
       <c r="L114">
-        <v>6378.9666666666599</v>
+        <v>19313.8</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B115">
         <v>3000</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D115" t="s">
         <v>10</v>
       </c>
       <c r="E115">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F115" t="s">
         <v>11</v>
       </c>
       <c r="G115">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I115">
-        <v>834.93333333333305</v>
+        <v>739.2</v>
       </c>
       <c r="J115">
-        <v>62.468623235100097</v>
+        <v>56.8567791326006</v>
       </c>
       <c r="K115">
-        <v>5444.4</v>
+        <v>8259.7999999999993</v>
       </c>
       <c r="L115">
-        <v>8116.9666666666599</v>
+        <v>14312.7</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B116">
         <v>3000</v>
       </c>
       <c r="C116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" t="s">
         <v>15</v>
       </c>
-      <c r="D116" t="s">
-        <v>16</v>
-      </c>
       <c r="E116">
         <v>0.8</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G116">
         <v>0.2</v>
       </c>
       <c r="I116">
-        <v>834.93333333333305</v>
+        <v>740.4</v>
       </c>
       <c r="J116">
-        <v>43.670686837842197</v>
+        <v>39.0363932760187</v>
       </c>
       <c r="K116">
-        <v>4768.7666666666601</v>
+        <v>17339.233333333301</v>
       </c>
       <c r="L116">
-        <v>6367.3333333333303</v>
+        <v>23992.433333333302</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -5040,31 +5040,31 @@
         <v>3000</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D117" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E117">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G117">
         <v>0.4</v>
       </c>
       <c r="I117">
-        <v>839.4</v>
+        <v>745.53333333333296</v>
       </c>
       <c r="J117">
-        <v>40.497407324420102</v>
+        <v>34.439060511124403</v>
       </c>
       <c r="K117">
-        <v>3554.7</v>
+        <v>8357.8333333333303</v>
       </c>
       <c r="L117">
-        <v>6499.9333333333298</v>
+        <v>9430.4333333333307</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -5075,66 +5075,66 @@
         <v>3000</v>
       </c>
       <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" t="s">
         <v>15</v>
       </c>
-      <c r="D118" t="s">
-        <v>17</v>
-      </c>
       <c r="E118">
         <v>0.8</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G118">
         <v>0.4</v>
       </c>
       <c r="I118">
-        <v>847.73333333333301</v>
+        <v>749.33333333333303</v>
       </c>
       <c r="J118">
-        <v>31.282511976431099</v>
+        <v>20.260525385312398</v>
       </c>
       <c r="K118">
-        <v>9500.4</v>
+        <v>7687.0666666666602</v>
       </c>
       <c r="L118">
-        <v>9970.7000000000007</v>
+        <v>11656.4</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B119">
         <v>3000</v>
       </c>
       <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" t="s">
         <v>15</v>
       </c>
-      <c r="D119" t="s">
-        <v>16</v>
-      </c>
       <c r="E119">
         <v>0.7</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G119">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I119">
-        <v>848.06666666666604</v>
+        <v>749.46666666666601</v>
       </c>
       <c r="J119">
-        <v>36.542152220263198</v>
+        <v>21.228492383795999</v>
       </c>
       <c r="K119">
-        <v>7357.6333333333296</v>
+        <v>6319.7</v>
       </c>
       <c r="L119">
-        <v>12741.5</v>
+        <v>9282.6666666666606</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -5145,31 +5145,31 @@
         <v>3000</v>
       </c>
       <c r="C120" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" t="s">
         <v>15</v>
       </c>
-      <c r="D120" t="s">
-        <v>10</v>
-      </c>
       <c r="E120">
         <v>0.7</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G120">
         <v>0.2</v>
       </c>
       <c r="I120">
-        <v>861.13333333333298</v>
+        <v>753.66666666666595</v>
       </c>
       <c r="J120">
-        <v>48.240186106145501</v>
+        <v>37.534280627477301</v>
       </c>
       <c r="K120">
-        <v>12677.866666666599</v>
+        <v>18710.8</v>
       </c>
       <c r="L120">
-        <v>14360.666666666601</v>
+        <v>22201.633333333299</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -5180,31 +5180,31 @@
         <v>3000</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D121" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E121">
         <v>0.7</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G121">
         <v>0.2</v>
       </c>
       <c r="I121">
-        <v>866.33333333333303</v>
+        <v>753.93333333333305</v>
       </c>
       <c r="J121">
-        <v>36.489572330857598</v>
+        <v>53.460224050742198</v>
       </c>
       <c r="K121">
-        <v>4328.3666666666604</v>
+        <v>7645.8666666666604</v>
       </c>
       <c r="L121">
-        <v>6269.5</v>
+        <v>9203.4666666666599</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -5215,31 +5215,31 @@
         <v>3000</v>
       </c>
       <c r="C122" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" t="s">
         <v>15</v>
       </c>
-      <c r="D122" t="s">
-        <v>17</v>
-      </c>
       <c r="E122">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G122">
         <v>0.4</v>
       </c>
       <c r="I122">
-        <v>874.86666666666599</v>
+        <v>757.26666666666597</v>
       </c>
       <c r="J122">
-        <v>27.07856881168</v>
+        <v>33.966584887045798</v>
       </c>
       <c r="K122">
-        <v>8797.9666666666599</v>
+        <v>8281.9</v>
       </c>
       <c r="L122">
-        <v>9516.3666666666595</v>
+        <v>9325.2999999999993</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -5250,31 +5250,31 @@
         <v>3000</v>
       </c>
       <c r="C123" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D123" t="s">
         <v>10</v>
       </c>
       <c r="E123">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G123">
         <v>0.2</v>
       </c>
       <c r="I123">
-        <v>901.53333333333296</v>
+        <v>758</v>
       </c>
       <c r="J123">
-        <v>59.890307136371298</v>
+        <v>39.442785567621002</v>
       </c>
       <c r="K123">
-        <v>11692.2</v>
+        <v>7560.0333333333301</v>
       </c>
       <c r="L123">
-        <v>14393.166666666601</v>
+        <v>13780.266666666599</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -5285,101 +5285,101 @@
         <v>3000</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D124" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E124">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F124" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G124">
         <v>0.4</v>
       </c>
       <c r="I124">
-        <v>913.26666666666597</v>
+        <v>758.73333333333301</v>
       </c>
       <c r="J124">
-        <v>17.749992175272101</v>
+        <v>44.140633837265497</v>
       </c>
       <c r="K124">
-        <v>11023.733333333301</v>
+        <v>9767.8666666666595</v>
       </c>
       <c r="L124">
-        <v>17788.900000000001</v>
+        <v>18589.400000000001</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B125">
         <v>3000</v>
       </c>
       <c r="C125" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" t="s">
         <v>15</v>
       </c>
-      <c r="D125" t="s">
-        <v>10</v>
-      </c>
       <c r="E125">
         <v>0.7</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G125">
         <v>0.2</v>
       </c>
       <c r="I125">
-        <v>916.4</v>
+        <v>761.2</v>
       </c>
       <c r="J125">
-        <v>49.0588761931348</v>
+        <v>35.794226722568901</v>
       </c>
       <c r="K125">
-        <v>6261.6333333333296</v>
+        <v>13525.0666666666</v>
       </c>
       <c r="L125">
-        <v>6998.0333333333301</v>
+        <v>19574.0666666666</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B126">
         <v>3000</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D126" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E126">
         <v>0.8</v>
       </c>
       <c r="F126" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G126">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I126">
-        <v>916.66666666666595</v>
+        <v>764.86666666666599</v>
       </c>
       <c r="J126">
-        <v>35.381099788195101</v>
+        <v>39.037361021917903</v>
       </c>
       <c r="K126">
-        <v>16427.133333333299</v>
+        <v>5379.9</v>
       </c>
       <c r="L126">
-        <v>18622.400000000001</v>
+        <v>7017.4</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -5390,66 +5390,66 @@
         <v>3000</v>
       </c>
       <c r="C127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" t="s">
         <v>15</v>
       </c>
-      <c r="D127" t="s">
-        <v>10</v>
-      </c>
       <c r="E127">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G127">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I127">
-        <v>918.46666666666601</v>
+        <v>766.06666666666604</v>
       </c>
       <c r="J127">
-        <v>38.271602469135701</v>
+        <v>37.436108534705099</v>
       </c>
       <c r="K127">
-        <v>6329.2666666666601</v>
+        <v>7798.0333333333301</v>
       </c>
       <c r="L127">
-        <v>7175.0666666666602</v>
+        <v>8911.8333333333303</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B128">
         <v>3000</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D128" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E128">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G128">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I128">
-        <v>924.46666666666601</v>
+        <v>766.8</v>
       </c>
       <c r="J128">
-        <v>18.893973171946101</v>
+        <v>38.951593891221698</v>
       </c>
       <c r="K128">
-        <v>13262.7</v>
+        <v>6841.2333333333299</v>
       </c>
       <c r="L128">
-        <v>18843.5333333333</v>
+        <v>9140.7333333333299</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -5460,66 +5460,66 @@
         <v>3000</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D129" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E129">
         <v>0.7</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G129">
         <v>0.4</v>
       </c>
       <c r="I129">
-        <v>933.46666666666601</v>
+        <v>766.86666666666599</v>
       </c>
       <c r="J129">
-        <v>35.405963088471701</v>
+        <v>34.685956171850798</v>
       </c>
       <c r="K129">
-        <v>12963.0666666666</v>
+        <v>9709.8666666666595</v>
       </c>
       <c r="L129">
-        <v>14097.5333333333</v>
+        <v>16298.7</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B130">
         <v>3000</v>
       </c>
       <c r="C130" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D130" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E130">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F130" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G130">
         <v>0.2</v>
       </c>
       <c r="I130">
-        <v>936.93333333333305</v>
+        <v>768.66666666666595</v>
       </c>
       <c r="J130">
-        <v>32.2355221593956</v>
+        <v>48.597210710995398</v>
       </c>
       <c r="K130">
-        <v>15830.333333333299</v>
+        <v>8106.3666666666604</v>
       </c>
       <c r="L130">
-        <v>18361.366666666599</v>
+        <v>9392.1</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -5530,66 +5530,66 @@
         <v>3000</v>
       </c>
       <c r="C131" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E131">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G131">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I131">
-        <v>937.6</v>
+        <v>769.6</v>
       </c>
       <c r="J131">
-        <v>38.169446769198302</v>
+        <v>44.261043819593702</v>
       </c>
       <c r="K131">
-        <v>11404.833333333299</v>
+        <v>9580.0333333333292</v>
       </c>
       <c r="L131">
-        <v>14735.5333333333</v>
+        <v>15233.5666666666</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B132">
         <v>3000</v>
       </c>
       <c r="C132" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" t="s">
         <v>15</v>
       </c>
-      <c r="D132" t="s">
-        <v>18</v>
-      </c>
       <c r="E132">
         <v>0.8</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G132">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I132">
-        <v>943.4</v>
+        <v>774.66666666666595</v>
       </c>
       <c r="J132">
-        <v>32.945004679516003</v>
+        <v>39.111237373533498</v>
       </c>
       <c r="K132">
-        <v>7002.3666666666604</v>
+        <v>9110.1</v>
       </c>
       <c r="L132">
-        <v>13173.366666666599</v>
+        <v>11646.0333333333</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -5600,136 +5600,136 @@
         <v>3000</v>
       </c>
       <c r="C133" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D133" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E133">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F133" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G133">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I133">
-        <v>957.06666666666604</v>
+        <v>778.86666666666599</v>
       </c>
       <c r="J133">
-        <v>32.073803779546999</v>
+        <v>40.158629901374297</v>
       </c>
       <c r="K133">
-        <v>8173.8</v>
+        <v>4695.3</v>
       </c>
       <c r="L133">
-        <v>9549.2000000000007</v>
+        <v>6855.1333333333296</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B134">
         <v>3000</v>
       </c>
       <c r="C134" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" t="s">
         <v>15</v>
       </c>
-      <c r="D134" t="s">
-        <v>16</v>
-      </c>
       <c r="E134">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G134">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I134">
-        <v>960.53333333333296</v>
+        <v>780.2</v>
       </c>
       <c r="J134">
-        <v>33.909421830648903</v>
+        <v>26.413885237377201</v>
       </c>
       <c r="K134">
-        <v>12615.333333333299</v>
+        <v>10660.233333333301</v>
       </c>
       <c r="L134">
-        <v>14181.5333333333</v>
+        <v>11730.6333333333</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B135">
         <v>3000</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D135" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E135">
         <v>0.8</v>
       </c>
       <c r="F135" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G135">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I135">
-        <v>961.4</v>
+        <v>782.2</v>
       </c>
       <c r="J135">
-        <v>20.932590220355699</v>
+        <v>40.920573472683998</v>
       </c>
       <c r="K135">
-        <v>4775.3333333333303</v>
+        <v>11439.0333333333</v>
       </c>
       <c r="L135">
-        <v>9206.6333333333296</v>
+        <v>15965.5</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B136">
         <v>3000</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D136" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E136">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G136">
         <v>0.4</v>
       </c>
       <c r="I136">
-        <v>966.06666666666604</v>
+        <v>782.4</v>
       </c>
       <c r="J136">
-        <v>19.5242299606298</v>
+        <v>39.335819130490499</v>
       </c>
       <c r="K136">
-        <v>5456.3666666666604</v>
+        <v>12277.0666666666</v>
       </c>
       <c r="L136">
-        <v>8922.6333333333296</v>
+        <v>16559.433333333302</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -5740,31 +5740,31 @@
         <v>3000</v>
       </c>
       <c r="C137" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" t="s">
         <v>15</v>
       </c>
-      <c r="D137" t="s">
-        <v>17</v>
-      </c>
       <c r="E137">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G137">
         <v>0.2</v>
       </c>
       <c r="I137">
-        <v>977.46666666666601</v>
+        <v>782.73333333333301</v>
       </c>
       <c r="J137">
-        <v>36.335229308329502</v>
+        <v>36.596842608193498</v>
       </c>
       <c r="K137">
-        <v>7541.3333333333303</v>
+        <v>7693.1666666666597</v>
       </c>
       <c r="L137">
-        <v>9108.2000000000007</v>
+        <v>9429.2999999999993</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -5775,66 +5775,66 @@
         <v>3000</v>
       </c>
       <c r="C138" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E138">
         <v>0.8</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G138">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I138">
-        <v>981</v>
+        <v>783.53333333333296</v>
       </c>
       <c r="J138">
-        <v>46.971622638922398</v>
+        <v>49.141112002974502</v>
       </c>
       <c r="K138">
-        <v>5828.0666666666602</v>
+        <v>5683.5666666666602</v>
       </c>
       <c r="L138">
-        <v>7232.2</v>
+        <v>8312.9333333333307</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B139">
         <v>3000</v>
       </c>
       <c r="C139" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" t="s">
         <v>15</v>
       </c>
-      <c r="D139" t="s">
-        <v>16</v>
-      </c>
       <c r="E139">
         <v>0.7</v>
       </c>
       <c r="F139" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G139">
         <v>0.4</v>
       </c>
       <c r="I139">
-        <v>982.2</v>
+        <v>784</v>
       </c>
       <c r="J139">
-        <v>33.344064939156198</v>
+        <v>34.4751117958061</v>
       </c>
       <c r="K139">
-        <v>6184.8666666666604</v>
+        <v>8932.8333333333303</v>
       </c>
       <c r="L139">
-        <v>6857.2666666666601</v>
+        <v>18364.266666666601</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -5845,101 +5845,101 @@
         <v>3000</v>
       </c>
       <c r="C140" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" t="s">
         <v>15</v>
       </c>
-      <c r="D140" t="s">
-        <v>16</v>
-      </c>
       <c r="E140">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F140" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G140">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I140">
-        <v>991.33333333333303</v>
+        <v>785</v>
       </c>
       <c r="J140">
-        <v>34.933587785332797</v>
+        <v>41.926125506657499</v>
       </c>
       <c r="K140">
-        <v>6292.2666666666601</v>
+        <v>8720.5333333333292</v>
       </c>
       <c r="L140">
-        <v>7060.4333333333298</v>
+        <v>11178.0666666666</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B141">
         <v>3000</v>
       </c>
       <c r="C141" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" t="s">
         <v>15</v>
       </c>
-      <c r="D141" t="s">
-        <v>16</v>
-      </c>
       <c r="E141">
         <v>0.8</v>
       </c>
       <c r="F141" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G141">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I141">
-        <v>997.33333333333303</v>
+        <v>785.4</v>
       </c>
       <c r="J141">
-        <v>32.714251057027397</v>
+        <v>45.516736848475098</v>
       </c>
       <c r="K141">
-        <v>6415.6666666666597</v>
+        <v>8527.4333333333307</v>
       </c>
       <c r="L141">
-        <v>7114.3</v>
+        <v>18224.400000000001</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B142">
         <v>3000</v>
       </c>
       <c r="C142" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D142" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E142">
         <v>0.8</v>
       </c>
       <c r="F142" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G142">
         <v>0.2</v>
       </c>
       <c r="I142">
-        <v>1000.86666666666</v>
+        <v>788.4</v>
       </c>
       <c r="J142">
-        <v>24.758477784836</v>
+        <v>40.161009283466299</v>
       </c>
       <c r="K142">
-        <v>13513.1333333333</v>
+        <v>5060.1666666666597</v>
       </c>
       <c r="L142">
-        <v>19008.5333333333</v>
+        <v>6943.3</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -5950,101 +5950,101 @@
         <v>3000</v>
       </c>
       <c r="C143" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" t="s">
         <v>15</v>
       </c>
-      <c r="D143" t="s">
-        <v>10</v>
-      </c>
       <c r="E143">
         <v>0.7</v>
       </c>
       <c r="F143" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G143">
         <v>0.2</v>
       </c>
       <c r="I143">
-        <v>1003.53333333333</v>
+        <v>789.8</v>
       </c>
       <c r="J143">
-        <v>32.764547235625798</v>
+        <v>28.200945610623201</v>
       </c>
       <c r="K143">
-        <v>5856.5</v>
+        <v>9674.9</v>
       </c>
       <c r="L143">
-        <v>7042.3</v>
+        <v>11187.266666666599</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B144">
         <v>3000</v>
       </c>
       <c r="C144" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D144" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E144">
         <v>0.7</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G144">
         <v>0.4</v>
       </c>
       <c r="I144">
-        <v>1012.86666666666</v>
+        <v>790.06666666666604</v>
       </c>
       <c r="J144">
-        <v>31.4523272412215</v>
+        <v>45.885315976052901</v>
       </c>
       <c r="K144">
-        <v>5594.9333333333298</v>
+        <v>12032.9666666666</v>
       </c>
       <c r="L144">
-        <v>6966.0333333333301</v>
+        <v>16348.266666666599</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B145">
         <v>3000</v>
       </c>
       <c r="C145" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D145" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E145">
         <v>0.8</v>
       </c>
       <c r="F145" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G145">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I145">
-        <v>1019.2666666666599</v>
+        <v>791.86666666666599</v>
       </c>
       <c r="J145">
-        <v>29.567925565081801</v>
+        <v>35.503740022081502</v>
       </c>
       <c r="K145">
-        <v>8894.7999999999993</v>
+        <v>6448.7</v>
       </c>
       <c r="L145">
-        <v>13090.666666666601</v>
+        <v>8308.0666666666602</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
@@ -6055,101 +6055,101 @@
         <v>3000</v>
       </c>
       <c r="C146" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D146" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E146">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F146" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G146">
         <v>0.2</v>
       </c>
       <c r="I146">
-        <v>1023.06666666666</v>
+        <v>793</v>
       </c>
       <c r="J146">
-        <v>39.969099175349001</v>
+        <v>40.3773864103824</v>
       </c>
       <c r="K146">
-        <v>9388.0333333333292</v>
+        <v>7951.7666666666601</v>
       </c>
       <c r="L146">
-        <v>13381.7</v>
+        <v>15180</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B147">
         <v>3000</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E147">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G147">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I147">
-        <v>1024.4000000000001</v>
+        <v>795.93333333333305</v>
       </c>
       <c r="J147">
-        <v>31.140113465860502</v>
+        <v>27.916462685821902</v>
       </c>
       <c r="K147">
-        <v>5212</v>
+        <v>8201.8333333333303</v>
       </c>
       <c r="L147">
-        <v>8845.5</v>
+        <v>15675.6333333333</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B148">
         <v>3000</v>
       </c>
       <c r="C148" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D148" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E148">
         <v>0.7</v>
       </c>
       <c r="F148" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G148">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I148">
-        <v>1027.06666666666</v>
+        <v>797</v>
       </c>
       <c r="J148">
-        <v>38.635849788621002</v>
+        <v>36.444478319767398</v>
       </c>
       <c r="K148">
-        <v>13528.366666666599</v>
+        <v>6593.8</v>
       </c>
       <c r="L148">
-        <v>18297.133333333299</v>
+        <v>8199.6666666666606</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
@@ -6160,66 +6160,66 @@
         <v>3000</v>
       </c>
       <c r="C149" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D149" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E149">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G149">
         <v>0.2</v>
       </c>
       <c r="I149">
-        <v>1027.06666666666</v>
+        <v>797.26666666666597</v>
       </c>
       <c r="J149">
-        <v>102.703110414869</v>
+        <v>38.524393426618502</v>
       </c>
       <c r="K149">
-        <v>9547.1</v>
+        <v>11761.9333333333</v>
       </c>
       <c r="L149">
-        <v>14295.9333333333</v>
+        <v>15696.5666666666</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B150">
         <v>3000</v>
       </c>
       <c r="C150" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D150" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E150">
         <v>0.7</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G150">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I150">
-        <v>1030.2</v>
+        <v>797.73333333333301</v>
       </c>
       <c r="J150">
-        <v>34.185181975040898</v>
+        <v>40.407040090668403</v>
       </c>
       <c r="K150">
-        <v>7353.1</v>
+        <v>5888.8666666666604</v>
       </c>
       <c r="L150">
-        <v>13748.9</v>
+        <v>7808.0333333333301</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
@@ -6230,36 +6230,36 @@
         <v>3000</v>
       </c>
       <c r="C151" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" t="s">
         <v>15</v>
       </c>
-      <c r="D151" t="s">
-        <v>18</v>
-      </c>
       <c r="E151">
         <v>0.7</v>
       </c>
       <c r="F151" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G151">
         <v>0.2</v>
       </c>
       <c r="I151">
-        <v>1036.3333333333301</v>
+        <v>798.8</v>
       </c>
       <c r="J151">
-        <v>41.0563298679049</v>
+        <v>29.775157430314199</v>
       </c>
       <c r="K151">
-        <v>6871.5333333333301</v>
+        <v>9996.9333333333307</v>
       </c>
       <c r="L151">
-        <v>11854.1333333333</v>
+        <v>18293.733333333301</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B152">
         <v>3000</v>
@@ -6268,7 +6268,7 @@
         <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E152">
         <v>0.7</v>
@@ -6277,19 +6277,19 @@
         <v>11</v>
       </c>
       <c r="G152">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I152">
-        <v>1047.2666666666601</v>
+        <v>799</v>
       </c>
       <c r="J152">
-        <v>23.531444683420698</v>
+        <v>48.054829795418698</v>
       </c>
       <c r="K152">
-        <v>9508.8333333333303</v>
+        <v>7467.7</v>
       </c>
       <c r="L152">
-        <v>17358.8</v>
+        <v>9074.2666666666591</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
@@ -6300,101 +6300,101 @@
         <v>3000</v>
       </c>
       <c r="C153" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D153" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E153">
         <v>0.7</v>
       </c>
       <c r="F153" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G153">
         <v>0.4</v>
       </c>
       <c r="I153">
-        <v>1047.2666666666601</v>
+        <v>799.86666666666599</v>
       </c>
       <c r="J153">
-        <v>42.349288331945097</v>
+        <v>36.371906130357701</v>
       </c>
       <c r="K153">
-        <v>4284.4333333333298</v>
+        <v>5236.5666666666602</v>
       </c>
       <c r="L153">
-        <v>6375.0666666666602</v>
+        <v>8169.2666666666601</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B154">
         <v>3000</v>
       </c>
       <c r="C154" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" t="s">
         <v>15</v>
       </c>
-      <c r="D154" t="s">
-        <v>16</v>
-      </c>
       <c r="E154">
         <v>0.7</v>
       </c>
       <c r="F154" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G154">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I154">
-        <v>1048.8</v>
+        <v>803.93333333333305</v>
       </c>
       <c r="J154">
-        <v>33.6</v>
+        <v>37.889253826851103</v>
       </c>
       <c r="K154">
-        <v>9653.8333333333303</v>
+        <v>5356.2333333333299</v>
       </c>
       <c r="L154">
-        <v>13236.6</v>
+        <v>9015.5666666666602</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B155">
         <v>3000</v>
       </c>
       <c r="C155" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D155" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E155">
         <v>0.8</v>
       </c>
       <c r="F155" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G155">
         <v>0.2</v>
       </c>
       <c r="I155">
-        <v>1049.2666666666601</v>
+        <v>804.66666666666595</v>
       </c>
       <c r="J155">
-        <v>35.610797363845798</v>
+        <v>31.670526080603999</v>
       </c>
       <c r="K155">
-        <v>9739.4333333333307</v>
+        <v>6045.0333333333301</v>
       </c>
       <c r="L155">
-        <v>13362.166666666601</v>
+        <v>7990.0333333333301</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
@@ -6405,31 +6405,31 @@
         <v>3000</v>
       </c>
       <c r="C156" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" t="s">
         <v>15</v>
       </c>
-      <c r="D156" t="s">
-        <v>18</v>
-      </c>
       <c r="E156">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F156" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G156">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I156">
-        <v>1057.4666666666601</v>
+        <v>806.06666666666604</v>
       </c>
       <c r="J156">
-        <v>27.329755863445801</v>
+        <v>40.406215143492702</v>
       </c>
       <c r="K156">
-        <v>3530.13333333333</v>
+        <v>5703.6</v>
       </c>
       <c r="L156">
-        <v>5755.8</v>
+        <v>9478.5666666666602</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
@@ -6440,31 +6440,31 @@
         <v>3000</v>
       </c>
       <c r="C157" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D157" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E157">
         <v>0.8</v>
       </c>
       <c r="F157" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G157">
         <v>0.2</v>
       </c>
       <c r="I157">
-        <v>1058.6666666666599</v>
+        <v>810.4</v>
       </c>
       <c r="J157">
-        <v>37.488961338268901</v>
+        <v>42.7407689838792</v>
       </c>
       <c r="K157">
-        <v>4684.1666666666597</v>
+        <v>6654.8333333333303</v>
       </c>
       <c r="L157">
-        <v>6575.7333333333299</v>
+        <v>7945.9666666666599</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
@@ -6475,31 +6475,31 @@
         <v>3000</v>
       </c>
       <c r="C158" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D158" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E158">
         <v>0.7</v>
       </c>
       <c r="F158" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G158">
         <v>0.2</v>
       </c>
       <c r="I158">
-        <v>1060.2666666666601</v>
+        <v>811.2</v>
       </c>
       <c r="J158">
-        <v>27.2603904757229</v>
+        <v>46.3741307196156</v>
       </c>
       <c r="K158">
-        <v>4772.1666666666597</v>
+        <v>4784.5666666666602</v>
       </c>
       <c r="L158">
-        <v>6500.3666666666604</v>
+        <v>6771.5</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
@@ -6510,31 +6510,31 @@
         <v>3000</v>
       </c>
       <c r="C159" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159" t="s">
         <v>15</v>
       </c>
-      <c r="D159" t="s">
-        <v>17</v>
-      </c>
       <c r="E159">
         <v>0.8</v>
       </c>
       <c r="F159" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G159">
         <v>0.2</v>
       </c>
       <c r="I159">
-        <v>1063.13333333333</v>
+        <v>814.53333333333296</v>
       </c>
       <c r="J159">
-        <v>31.4650423309565</v>
+        <v>36.029370734937203</v>
       </c>
       <c r="K159">
-        <v>7534</v>
+        <v>6658.3666666666604</v>
       </c>
       <c r="L159">
-        <v>9613.9333333333307</v>
+        <v>9389.2333333333299</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
@@ -6545,290 +6545,290 @@
         <v>3000</v>
       </c>
       <c r="C160" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D160" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E160">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F160" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G160">
         <v>0.2</v>
       </c>
       <c r="I160">
-        <v>1069.06666666666</v>
+        <v>816.26666666666597</v>
       </c>
       <c r="J160">
-        <v>34.589915036354398</v>
+        <v>30.488176214540701</v>
       </c>
       <c r="K160">
-        <v>3173.3333333333298</v>
+        <v>6370.0666666666602</v>
       </c>
       <c r="L160">
-        <v>5818</v>
+        <v>7853.4</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B161">
         <v>3000</v>
       </c>
       <c r="C161" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" t="s">
         <v>15</v>
       </c>
-      <c r="D161" t="s">
-        <v>18</v>
-      </c>
       <c r="E161">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F161" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G161">
         <v>0.2</v>
       </c>
       <c r="I161">
-        <v>1069.6666666666599</v>
+        <v>820.2</v>
       </c>
       <c r="J161">
-        <v>40.949019795621702</v>
+        <v>34.769143408104398</v>
       </c>
       <c r="K161">
-        <v>8610.6666666666606</v>
+        <v>6469.7</v>
       </c>
       <c r="L161">
-        <v>13225.5666666666</v>
+        <v>8943.6333333333296</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B162">
         <v>3000</v>
       </c>
       <c r="C162" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D162" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E162">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F162" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G162">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I162">
-        <v>1073</v>
+        <v>821.66666666666595</v>
       </c>
       <c r="J162">
-        <v>32.967660921980297</v>
+        <v>41.812544635418703</v>
       </c>
       <c r="K162">
-        <v>7251.7</v>
+        <v>7280.6333333333296</v>
       </c>
       <c r="L162">
-        <v>9167.1</v>
+        <v>13258.5</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B163">
         <v>3000</v>
       </c>
       <c r="C163" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D163" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E163">
         <v>0.8</v>
       </c>
       <c r="F163" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G163">
         <v>0.2</v>
       </c>
       <c r="I163">
-        <v>1083.3333333333301</v>
+        <v>822.66666666666595</v>
       </c>
       <c r="J163">
-        <v>36.060443085957097</v>
+        <v>33.571151636817902</v>
       </c>
       <c r="K163">
-        <v>4216.5</v>
+        <v>6140.2333333333299</v>
       </c>
       <c r="L163">
-        <v>6625.8666666666604</v>
+        <v>13130.266666666599</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B164">
         <v>3000</v>
       </c>
       <c r="C164" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D164" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E164">
         <v>0.7</v>
       </c>
       <c r="F164" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G164">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I164">
-        <v>1086.5333333333299</v>
+        <v>831.33333333333303</v>
       </c>
       <c r="J164">
-        <v>28.123220931386101</v>
+        <v>40.435408025914803</v>
       </c>
       <c r="K164">
-        <v>4336.1333333333296</v>
+        <v>7201.8</v>
       </c>
       <c r="L164">
-        <v>6525.6666666666597</v>
+        <v>12919</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B165">
         <v>3000</v>
       </c>
       <c r="C165" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D165" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E165">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F165" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G165">
         <v>0.4</v>
       </c>
       <c r="I165">
-        <v>1097.2666666666601</v>
+        <v>833.53333333333296</v>
       </c>
       <c r="J165">
-        <v>69.808277127827395</v>
+        <v>41.181495304997703</v>
       </c>
       <c r="K165">
-        <v>6993.6333333333296</v>
+        <v>3728.3</v>
       </c>
       <c r="L165">
-        <v>15627.8</v>
+        <v>6378.9666666666599</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B166">
         <v>3000</v>
       </c>
       <c r="C166" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E166">
         <v>0.7</v>
       </c>
       <c r="F166" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G166">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I166">
-        <v>1103.5333333333299</v>
+        <v>834.93333333333305</v>
       </c>
       <c r="J166">
-        <v>41.7378591795133</v>
+        <v>62.468623235100097</v>
       </c>
       <c r="K166">
-        <v>5874.8666666666604</v>
+        <v>5444.4</v>
       </c>
       <c r="L166">
-        <v>11808.866666666599</v>
+        <v>8116.9666666666599</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B167">
         <v>3000</v>
       </c>
       <c r="C167" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D167" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E167">
         <v>0.8</v>
       </c>
       <c r="F167" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G167">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I167">
-        <v>1106.6666666666599</v>
+        <v>834.93333333333305</v>
       </c>
       <c r="J167">
-        <v>84.971106200218898</v>
+        <v>43.670686837842197</v>
       </c>
       <c r="K167">
-        <v>9927.9333333333307</v>
+        <v>4768.7666666666601</v>
       </c>
       <c r="L167">
-        <v>15828.1</v>
+        <v>6367.3333333333303</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B168">
         <v>3000</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E168">
         <v>0.8</v>
@@ -6840,16 +6840,16 @@
         <v>0.4</v>
       </c>
       <c r="I168">
-        <v>1114.2</v>
+        <v>839.4</v>
       </c>
       <c r="J168">
-        <v>18.484948832315801</v>
+        <v>40.497407324420102</v>
       </c>
       <c r="K168">
-        <v>7499.7333333333299</v>
+        <v>3554.7</v>
       </c>
       <c r="L168">
-        <v>18353.966666666602</v>
+        <v>6499.9333333333298</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
@@ -6860,31 +6860,31 @@
         <v>3000</v>
       </c>
       <c r="C169" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D169" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E169">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F169" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G169">
         <v>0.2</v>
       </c>
       <c r="I169">
-        <v>1117.7333333333299</v>
+        <v>848.06666666666604</v>
       </c>
       <c r="J169">
-        <v>48.079748566545298</v>
+        <v>36.542152220263198</v>
       </c>
       <c r="K169">
-        <v>8267.2000000000007</v>
+        <v>7357.6333333333296</v>
       </c>
       <c r="L169">
-        <v>12426.9666666666</v>
+        <v>12741.5</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -6895,66 +6895,66 @@
         <v>3000</v>
       </c>
       <c r="C170" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D170" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E170">
         <v>0.7</v>
       </c>
       <c r="F170" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G170">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I170">
-        <v>1121.4000000000001</v>
+        <v>866.33333333333303</v>
       </c>
       <c r="J170">
-        <v>46.747976783314698</v>
+        <v>36.489572330857598</v>
       </c>
       <c r="K170">
-        <v>3540.6666666666601</v>
+        <v>4328.3666666666604</v>
       </c>
       <c r="L170">
-        <v>6265.4666666666599</v>
+        <v>6269.5</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B171">
         <v>3000</v>
       </c>
       <c r="C171" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D171" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E171">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F171" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G171">
         <v>0.2</v>
       </c>
       <c r="I171">
-        <v>1124.06666666666</v>
+        <v>900.93333333333305</v>
       </c>
       <c r="J171">
-        <v>36.049903683027402</v>
+        <v>144.73215107762101</v>
       </c>
       <c r="K171">
-        <v>3476.7333333333299</v>
+        <v>10415.5333333333</v>
       </c>
       <c r="L171">
-        <v>5813.6666666666597</v>
+        <v>16539.133333333299</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
@@ -6965,31 +6965,31 @@
         <v>3000</v>
       </c>
       <c r="C172" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D172" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E172">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F172" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G172">
         <v>0.4</v>
       </c>
       <c r="I172">
-        <v>1131.7333333333299</v>
+        <v>943.4</v>
       </c>
       <c r="J172">
-        <v>41.690073425483597</v>
+        <v>32.945004679516003</v>
       </c>
       <c r="K172">
-        <v>7846.5666666666602</v>
+        <v>7002.3666666666604</v>
       </c>
       <c r="L172">
-        <v>14269.3</v>
+        <v>13173.366666666599</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
@@ -7000,31 +7000,31 @@
         <v>3000</v>
       </c>
       <c r="C173" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D173" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E173">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F173" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G173">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I173">
-        <v>1132.4666666666601</v>
+        <v>950.4</v>
       </c>
       <c r="J173">
-        <v>33.616199798443702</v>
+        <v>124.78397332991101</v>
       </c>
       <c r="K173">
-        <v>10202.1333333333</v>
+        <v>10451.700000000001</v>
       </c>
       <c r="L173">
-        <v>13967.366666666599</v>
+        <v>16657.900000000001</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -7038,63 +7038,63 @@
         <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E174">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F174" t="s">
         <v>11</v>
       </c>
       <c r="G174">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I174">
-        <v>1137.4000000000001</v>
+        <v>1024.4000000000001</v>
       </c>
       <c r="J174">
-        <v>47.542682577518299</v>
+        <v>31.140113465860502</v>
       </c>
       <c r="K174">
-        <v>4202.4666666666599</v>
+        <v>5212</v>
       </c>
       <c r="L174">
-        <v>8002.1666666666597</v>
+        <v>8845.5</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B175">
         <v>3000</v>
       </c>
       <c r="C175" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D175" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E175">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F175" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G175">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I175">
-        <v>1140.5999999999999</v>
+        <v>1025</v>
       </c>
       <c r="J175">
-        <v>31.6655438397427</v>
+        <v>38.435226897556703</v>
       </c>
       <c r="K175">
-        <v>2999.1666666666601</v>
+        <v>9273.7333333333299</v>
       </c>
       <c r="L175">
-        <v>5829.6333333333296</v>
+        <v>16902.633333333299</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
@@ -7105,66 +7105,66 @@
         <v>3000</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E176">
         <v>0.8</v>
       </c>
       <c r="F176" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G176">
         <v>0.2</v>
       </c>
       <c r="I176">
-        <v>1140.8</v>
+        <v>1027.06666666666</v>
       </c>
       <c r="J176">
-        <v>15.6170846617841</v>
+        <v>102.703110414869</v>
       </c>
       <c r="K176">
-        <v>10343.5333333333</v>
+        <v>9547.1</v>
       </c>
       <c r="L176">
-        <v>18589.366666666599</v>
+        <v>14295.9333333333</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B177">
         <v>3000</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E177">
         <v>0.7</v>
       </c>
       <c r="F177" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G177">
         <v>0.4</v>
       </c>
       <c r="I177">
-        <v>1142.13333333333</v>
+        <v>1030.2</v>
       </c>
       <c r="J177">
-        <v>17.134241221081901</v>
+        <v>34.185181975040898</v>
       </c>
       <c r="K177">
-        <v>3851.5666666666598</v>
+        <v>7353.1</v>
       </c>
       <c r="L177">
-        <v>8483.8666666666595</v>
+        <v>13748.9</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -7175,31 +7175,31 @@
         <v>3000</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E178">
         <v>0.7</v>
       </c>
       <c r="F178" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G178">
         <v>0.4</v>
       </c>
       <c r="I178">
-        <v>1143.93333333333</v>
+        <v>1035.6666666666599</v>
       </c>
       <c r="J178">
-        <v>12.3232391124339</v>
+        <v>26.508279628993002</v>
       </c>
       <c r="K178">
-        <v>7655.5333333333301</v>
+        <v>8829.6</v>
       </c>
       <c r="L178">
-        <v>16996.3</v>
+        <v>16971</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -7213,33 +7213,33 @@
         <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E179">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G179">
         <v>0.4</v>
       </c>
       <c r="I179">
-        <v>1145.5333333333299</v>
+        <v>1047.2666666666601</v>
       </c>
       <c r="J179">
-        <v>13.1624043733996</v>
+        <v>23.531444683420698</v>
       </c>
       <c r="K179">
-        <v>7384.0666666666602</v>
+        <v>9508.8333333333303</v>
       </c>
       <c r="L179">
-        <v>17487.2</v>
+        <v>17358.8</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B180">
         <v>3000</v>
@@ -7248,33 +7248,33 @@
         <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E180">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F180" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G180">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I180">
-        <v>1146.3333333333301</v>
+        <v>1114.2</v>
       </c>
       <c r="J180">
-        <v>16.837128285099201</v>
+        <v>18.484948832315801</v>
       </c>
       <c r="K180">
-        <v>3382.4666666666599</v>
+        <v>7499.7333333333299</v>
       </c>
       <c r="L180">
-        <v>7709.5666666666602</v>
+        <v>18353.966666666602</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B181">
         <v>3000</v>
@@ -7286,25 +7286,25 @@
         <v>10</v>
       </c>
       <c r="E181">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F181" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G181">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I181">
-        <v>1151.06666666666</v>
+        <v>1115.6666666666599</v>
       </c>
       <c r="J181">
-        <v>21.1643305797487</v>
+        <v>31.719955163202101</v>
       </c>
       <c r="K181">
-        <v>11014.866666666599</v>
+        <v>6181.5</v>
       </c>
       <c r="L181">
-        <v>18605.133333333299</v>
+        <v>11387</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -7318,28 +7318,28 @@
         <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E182">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F182" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G182">
         <v>0.4</v>
       </c>
       <c r="I182">
-        <v>1151.2</v>
+        <v>1118.4000000000001</v>
       </c>
       <c r="J182">
-        <v>13.900599507455301</v>
+        <v>28.9661871843706</v>
       </c>
       <c r="K182">
-        <v>5025.5333333333301</v>
+        <v>6383.7333333333299</v>
       </c>
       <c r="L182">
-        <v>8715.6666666666606</v>
+        <v>11502.733333333301</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -7353,7 +7353,7 @@
         <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E183">
         <v>0.7</v>
@@ -7362,19 +7362,19 @@
         <v>11</v>
       </c>
       <c r="G183">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I183">
-        <v>1152.86666666666</v>
+        <v>1137.4000000000001</v>
       </c>
       <c r="J183">
-        <v>17.4561036762375</v>
+        <v>47.542682577518299</v>
       </c>
       <c r="K183">
-        <v>3603.2666666666601</v>
+        <v>4202.4666666666599</v>
       </c>
       <c r="L183">
-        <v>7820.4333333333298</v>
+        <v>8002.1666666666597</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -7388,63 +7388,63 @@
         <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E184">
         <v>0.7</v>
       </c>
       <c r="F184" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G184">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I184">
-        <v>1152.86666666666</v>
+        <v>1145.4666666666601</v>
       </c>
       <c r="J184">
-        <v>15.079198328234201</v>
+        <v>14.075352768423</v>
       </c>
       <c r="K184">
-        <v>7707.2</v>
+        <v>10739.0333333333</v>
       </c>
       <c r="L184">
-        <v>15461.866666666599</v>
+        <v>21355.599999999999</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B185">
         <v>3000</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D185" t="s">
         <v>16</v>
       </c>
       <c r="E185">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G185">
         <v>0.4</v>
       </c>
       <c r="I185">
-        <v>1152.93333333333</v>
+        <v>1145.5999999999999</v>
       </c>
       <c r="J185">
-        <v>18.3792153139233</v>
+        <v>29.436485297444499</v>
       </c>
       <c r="K185">
-        <v>7325.2666666666601</v>
+        <v>3966.1</v>
       </c>
       <c r="L185">
-        <v>15476.4</v>
+        <v>8656.8666666666595</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -7455,31 +7455,31 @@
         <v>3000</v>
       </c>
       <c r="C186" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E186">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G186">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I186">
-        <v>1154.06666666666</v>
+        <v>1146.3333333333301</v>
       </c>
       <c r="J186">
-        <v>13.170505769416</v>
+        <v>16.837128285099201</v>
       </c>
       <c r="K186">
-        <v>3284.2333333333299</v>
+        <v>3382.4666666666599</v>
       </c>
       <c r="L186">
-        <v>6892.6666666666597</v>
+        <v>7709.5666666666602</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -7490,36 +7490,36 @@
         <v>3000</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D187" t="s">
         <v>16</v>
       </c>
       <c r="E187">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F187" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G187">
         <v>0.4</v>
       </c>
       <c r="I187">
-        <v>1155.86666666666</v>
+        <v>1149.4000000000001</v>
       </c>
       <c r="J187">
-        <v>17.3430741860323</v>
+        <v>17.687283567580401</v>
       </c>
       <c r="K187">
-        <v>3942.2666666666601</v>
+        <v>3935.8</v>
       </c>
       <c r="L187">
-        <v>7718.8333333333303</v>
+        <v>8638.6</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B188">
         <v>3000</v>
@@ -7528,28 +7528,28 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E188">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F188" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G188">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I188">
-        <v>1155.93333333333</v>
+        <v>1150.6666666666599</v>
       </c>
       <c r="J188">
-        <v>10.763931541134101</v>
+        <v>20.022209890241601</v>
       </c>
       <c r="K188">
-        <v>8259.5</v>
+        <v>6240.8333333333303</v>
       </c>
       <c r="L188">
-        <v>15452.4</v>
+        <v>11843.333333333299</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -7566,25 +7566,25 @@
         <v>10</v>
       </c>
       <c r="E189">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F189" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G189">
         <v>0.4</v>
       </c>
       <c r="I189">
-        <v>1159.6666666666599</v>
+        <v>1151.8</v>
       </c>
       <c r="J189">
-        <v>14.0483292798665</v>
+        <v>10.8609391859083</v>
       </c>
       <c r="K189">
-        <v>10214.766666666599</v>
+        <v>11312.9</v>
       </c>
       <c r="L189">
-        <v>18702.966666666602</v>
+        <v>22570.666666666599</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -7598,28 +7598,28 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E190">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F190" t="s">
         <v>11</v>
       </c>
       <c r="G190">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I190">
-        <v>1161.3333333333301</v>
+        <v>1152.86666666666</v>
       </c>
       <c r="J190">
-        <v>16.775643720055001</v>
+        <v>17.4561036762375</v>
       </c>
       <c r="K190">
-        <v>3633</v>
+        <v>3603.2666666666601</v>
       </c>
       <c r="L190">
-        <v>7868.1666666666597</v>
+        <v>7820.4333333333298</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -7633,28 +7633,28 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E191">
         <v>0.7</v>
       </c>
       <c r="F191" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G191">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I191">
-        <v>1162.06666666666</v>
+        <v>1152.86666666666</v>
       </c>
       <c r="J191">
-        <v>13.841804635073901</v>
+        <v>15.079198328234201</v>
       </c>
       <c r="K191">
-        <v>6810.9333333333298</v>
+        <v>7707.2</v>
       </c>
       <c r="L191">
-        <v>15468.5</v>
+        <v>15461.866666666599</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -7668,33 +7668,33 @@
         <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E192">
         <v>0.7</v>
       </c>
       <c r="F192" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G192">
         <v>0.4</v>
       </c>
       <c r="I192">
-        <v>1162.8</v>
+        <v>1152.93333333333</v>
       </c>
       <c r="J192">
-        <v>11.771151175649701</v>
+        <v>18.3792153139233</v>
       </c>
       <c r="K192">
-        <v>9042.7333333333299</v>
+        <v>7325.2666666666601</v>
       </c>
       <c r="L192">
-        <v>17839.3</v>
+        <v>15476.4</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B193">
         <v>3000</v>
@@ -7703,39 +7703,39 @@
         <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E193">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F193" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G193">
         <v>0.2</v>
       </c>
       <c r="I193">
-        <v>1163.6666666666599</v>
+        <v>1153.6666666666599</v>
       </c>
       <c r="J193">
-        <v>14.4875425414004</v>
+        <v>15.284705500016001</v>
       </c>
       <c r="K193">
-        <v>7110.2</v>
+        <v>4084.0666666666598</v>
       </c>
       <c r="L193">
-        <v>15832</v>
+        <v>8056.0666666666602</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B194">
         <v>3000</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D194" t="s">
         <v>16</v>
@@ -7744,27 +7744,27 @@
         <v>0.8</v>
       </c>
       <c r="F194" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G194">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I194">
-        <v>1164.5999999999999</v>
+        <v>1154.06666666666</v>
       </c>
       <c r="J194">
-        <v>15.0921613208093</v>
+        <v>13.170505769416</v>
       </c>
       <c r="K194">
-        <v>7571.3333333333303</v>
+        <v>3284.2333333333299</v>
       </c>
       <c r="L194">
-        <v>15935.4</v>
+        <v>6892.6666666666597</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B195">
         <v>3000</v>
@@ -7776,30 +7776,30 @@
         <v>10</v>
       </c>
       <c r="E195">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F195" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G195">
         <v>0.4</v>
       </c>
       <c r="I195">
-        <v>1165.5999999999999</v>
+        <v>1155.4666666666601</v>
       </c>
       <c r="J195">
-        <v>13.4303139700207</v>
+        <v>10.429871630189</v>
       </c>
       <c r="K195">
-        <v>3747.1</v>
+        <v>9738.7999999999993</v>
       </c>
       <c r="L195">
-        <v>8854.3666666666595</v>
+        <v>18522.3</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B196">
         <v>3000</v>
@@ -7808,33 +7808,33 @@
         <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E196">
         <v>0.8</v>
       </c>
       <c r="F196" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G196">
         <v>0.4</v>
       </c>
       <c r="I196">
-        <v>1166.7333333333299</v>
+        <v>1155.5333333333299</v>
       </c>
       <c r="J196">
-        <v>10.563879758666101</v>
+        <v>13.4925493843413</v>
       </c>
       <c r="K196">
-        <v>9370.6</v>
+        <v>4489.1666666666597</v>
       </c>
       <c r="L196">
-        <v>16199.3</v>
+        <v>11864.5</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B197">
         <v>3000</v>
@@ -7843,33 +7843,33 @@
         <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E197">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G197">
         <v>0.4</v>
       </c>
       <c r="I197">
-        <v>1167.13333333333</v>
+        <v>1155.86666666666</v>
       </c>
       <c r="J197">
-        <v>13.0095691277185</v>
+        <v>17.3430741860323</v>
       </c>
       <c r="K197">
-        <v>8208.6</v>
+        <v>3942.2666666666601</v>
       </c>
       <c r="L197">
-        <v>15955.233333333301</v>
+        <v>7718.8333333333303</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B198">
         <v>3000</v>
@@ -7878,33 +7878,33 @@
         <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E198">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G198">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I198">
-        <v>1167.2666666666601</v>
+        <v>1155.93333333333</v>
       </c>
       <c r="J198">
-        <v>13.7160084896769</v>
+        <v>10.763931541134101</v>
       </c>
       <c r="K198">
-        <v>4439.8</v>
+        <v>8259.5</v>
       </c>
       <c r="L198">
-        <v>7882.5</v>
+        <v>15452.4</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B199">
         <v>3000</v>
@@ -7913,33 +7913,33 @@
         <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E199">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F199" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G199">
         <v>0.2</v>
       </c>
       <c r="I199">
-        <v>1167.93333333333</v>
+        <v>1156.86666666666</v>
       </c>
       <c r="J199">
-        <v>14.43591200983</v>
+        <v>18.886914929536601</v>
       </c>
       <c r="K199">
-        <v>4171.8</v>
+        <v>11533.366666666599</v>
       </c>
       <c r="L199">
-        <v>7872.5</v>
+        <v>19219.433333333302</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B200">
         <v>3000</v>
@@ -7954,27 +7954,27 @@
         <v>0.8</v>
       </c>
       <c r="F200" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G200">
         <v>0.4</v>
       </c>
       <c r="I200">
-        <v>1169.5333333333299</v>
+        <v>1158.8</v>
       </c>
       <c r="J200">
-        <v>10.704308582165501</v>
+        <v>12.4429364165644</v>
       </c>
       <c r="K200">
-        <v>4324.8333333333303</v>
+        <v>8296.8333333333303</v>
       </c>
       <c r="L200">
-        <v>9163.5666666666602</v>
+        <v>20052.466666666602</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B201">
         <v>3000</v>
@@ -7983,28 +7983,28 @@
         <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E201">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F201" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G201">
         <v>0.2</v>
       </c>
       <c r="I201">
-        <v>1170</v>
+        <v>1161.3333333333301</v>
       </c>
       <c r="J201">
-        <v>14.7873820085458</v>
+        <v>16.775643720055001</v>
       </c>
       <c r="K201">
-        <v>7532.8333333333303</v>
+        <v>3633</v>
       </c>
       <c r="L201">
-        <v>15604.9333333333</v>
+        <v>7868.1666666666597</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
@@ -8018,33 +8018,33 @@
         <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E202">
         <v>0.7</v>
       </c>
       <c r="F202" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G202">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I202">
-        <v>1170.7333333333299</v>
+        <v>1162.06666666666</v>
       </c>
       <c r="J202">
-        <v>14.518800072855701</v>
+        <v>13.841804635073901</v>
       </c>
       <c r="K202">
-        <v>8199.2666666666591</v>
+        <v>6810.9333333333298</v>
       </c>
       <c r="L202">
-        <v>15584.4</v>
+        <v>15468.5</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B203">
         <v>3000</v>
@@ -8053,28 +8053,28 @@
         <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E203">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F203" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G203">
         <v>0.4</v>
       </c>
       <c r="I203">
-        <v>1171.4000000000001</v>
+        <v>1163.13333333333</v>
       </c>
       <c r="J203">
-        <v>17.421442726326202</v>
+        <v>13.263316159827999</v>
       </c>
       <c r="K203">
-        <v>3939.13333333333</v>
+        <v>9228.3333333333303</v>
       </c>
       <c r="L203">
-        <v>7876.7666666666601</v>
+        <v>19291.266666666601</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
@@ -8088,28 +8088,28 @@
         <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E204">
         <v>0.8</v>
       </c>
       <c r="F204" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G204">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I204">
-        <v>1172.2</v>
+        <v>1163.6666666666599</v>
       </c>
       <c r="J204">
-        <v>12.2021855965779</v>
+        <v>14.4875425414004</v>
       </c>
       <c r="K204">
-        <v>9457.6666666666606</v>
+        <v>7110.2</v>
       </c>
       <c r="L204">
-        <v>18772.266666666601</v>
+        <v>15832</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
@@ -8123,28 +8123,28 @@
         <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E205">
         <v>0.8</v>
       </c>
       <c r="F205" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G205">
         <v>0.2</v>
       </c>
       <c r="I205">
-        <v>1172.4000000000001</v>
+        <v>1164.5999999999999</v>
       </c>
       <c r="J205">
-        <v>12.8830638177932</v>
+        <v>15.0921613208093</v>
       </c>
       <c r="K205">
-        <v>7857.2333333333299</v>
+        <v>7571.3333333333303</v>
       </c>
       <c r="L205">
-        <v>16219.333333333299</v>
+        <v>15935.4</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
@@ -8158,28 +8158,28 @@
         <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E206">
         <v>0.7</v>
       </c>
       <c r="F206" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G206">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I206">
-        <v>1173.86666666666</v>
+        <v>1165.93333333333</v>
       </c>
       <c r="J206">
-        <v>16.132231367324501</v>
+        <v>12.935566817456699</v>
       </c>
       <c r="K206">
-        <v>8886.7333333333299</v>
+        <v>10092.6</v>
       </c>
       <c r="L206">
-        <v>15650.3</v>
+        <v>19267.5333333333</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
@@ -8193,28 +8193,28 @@
         <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E207">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F207" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G207">
         <v>0.4</v>
       </c>
       <c r="I207">
-        <v>1174.5999999999999</v>
+        <v>1166.7333333333299</v>
       </c>
       <c r="J207">
-        <v>10.2130635299437</v>
+        <v>10.563879758666101</v>
       </c>
       <c r="K207">
-        <v>8335.1333333333296</v>
+        <v>9370.6</v>
       </c>
       <c r="L207">
-        <v>17735.900000000001</v>
+        <v>16199.3</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
@@ -8228,28 +8228,28 @@
         <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E208">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F208" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G208">
         <v>0.4</v>
       </c>
       <c r="I208">
-        <v>1175.5333333333299</v>
+        <v>1167.13333333333</v>
       </c>
       <c r="J208">
-        <v>12.7716700378437</v>
+        <v>13.0095691277185</v>
       </c>
       <c r="K208">
-        <v>7822.4666666666599</v>
+        <v>8208.6</v>
       </c>
       <c r="L208">
-        <v>15755.866666666599</v>
+        <v>15955.233333333301</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
@@ -8263,33 +8263,33 @@
         <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E209">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F209" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G209">
         <v>0.4</v>
       </c>
       <c r="I209">
-        <v>1176.2666666666601</v>
+        <v>1167.2666666666601</v>
       </c>
       <c r="J209">
-        <v>16.826434229773302</v>
+        <v>13.7160084896769</v>
       </c>
       <c r="K209">
-        <v>3834.1666666666601</v>
+        <v>4439.8</v>
       </c>
       <c r="L209">
-        <v>8811.4666666666599</v>
+        <v>7882.5</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B210">
         <v>3000</v>
@@ -8298,33 +8298,33 @@
         <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E210">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F210" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G210">
         <v>0.2</v>
       </c>
       <c r="I210">
-        <v>1176.8</v>
+        <v>1167.8</v>
       </c>
       <c r="J210">
-        <v>15.245545797598201</v>
+        <v>16.616056491638801</v>
       </c>
       <c r="K210">
-        <v>3999.8</v>
+        <v>10600.7</v>
       </c>
       <c r="L210">
-        <v>7752.8</v>
+        <v>19703.833333333299</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B211">
         <v>3000</v>
@@ -8333,63 +8333,63 @@
         <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E211">
         <v>0.8</v>
       </c>
       <c r="F211" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G211">
         <v>0.2</v>
       </c>
       <c r="I211">
-        <v>1176.8</v>
+        <v>1167.93333333333</v>
       </c>
       <c r="J211">
-        <v>13.242356285797401</v>
+        <v>14.43591200983</v>
       </c>
       <c r="K211">
-        <v>7895.1666666666597</v>
+        <v>4171.8</v>
       </c>
       <c r="L211">
-        <v>16132.5666666666</v>
+        <v>7872.5</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B212">
         <v>3000</v>
       </c>
       <c r="C212" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E212">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F212" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G212">
         <v>0.4</v>
       </c>
       <c r="I212">
-        <v>1178.4666666666601</v>
+        <v>1168.6666666666599</v>
       </c>
       <c r="J212">
-        <v>13.6984995123148</v>
+        <v>14.1641174176939</v>
       </c>
       <c r="K212">
-        <v>6958.8666666666604</v>
+        <v>4415</v>
       </c>
       <c r="L212">
-        <v>14318.833333333299</v>
+        <v>8056.1</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
@@ -8403,28 +8403,28 @@
         <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E213">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F213" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G213">
         <v>0.4</v>
       </c>
       <c r="I213">
-        <v>1178.7333333333299</v>
+        <v>1170.6666666666599</v>
       </c>
       <c r="J213">
-        <v>17.423993674113699</v>
+        <v>16.470849671127699</v>
       </c>
       <c r="K213">
-        <v>8020.1</v>
+        <v>8655.4</v>
       </c>
       <c r="L213">
-        <v>16233.733333333301</v>
+        <v>19357.5333333333</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
@@ -8438,28 +8438,28 @@
         <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E214">
         <v>0.8</v>
       </c>
       <c r="F214" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G214">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I214">
-        <v>1181.4000000000001</v>
+        <v>1171.4000000000001</v>
       </c>
       <c r="J214">
-        <v>13.217664947586799</v>
+        <v>17.421442726326202</v>
       </c>
       <c r="K214">
-        <v>3760.7666666666601</v>
+        <v>3939.13333333333</v>
       </c>
       <c r="L214">
-        <v>7906.3333333333303</v>
+        <v>7876.7666666666601</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
@@ -8473,33 +8473,33 @@
         <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E215">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F215" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G215">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I215">
-        <v>1181.4666666666601</v>
+        <v>1171.7333333333299</v>
       </c>
       <c r="J215">
-        <v>13.1446651620428</v>
+        <v>19.964858014910899</v>
       </c>
       <c r="K215">
-        <v>4583.2666666666601</v>
+        <v>3539.1666666666601</v>
       </c>
       <c r="L215">
-        <v>9119.1</v>
+        <v>8018.2666666666601</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B216">
         <v>3000</v>
@@ -8508,28 +8508,28 @@
         <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E216">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F216" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G216">
         <v>0.2</v>
       </c>
       <c r="I216">
-        <v>1181.93333333333</v>
+        <v>1171.8</v>
       </c>
       <c r="J216">
-        <v>17.839905331089099</v>
+        <v>13.300125312692799</v>
       </c>
       <c r="K216">
-        <v>3887.0666666666598</v>
+        <v>9384.7666666666591</v>
       </c>
       <c r="L216">
-        <v>7788.4</v>
+        <v>19682</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
@@ -8543,33 +8543,33 @@
         <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E217">
         <v>0.8</v>
       </c>
       <c r="F217" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G217">
         <v>0.2</v>
       </c>
       <c r="I217">
-        <v>1182.06666666666</v>
+        <v>1172.4000000000001</v>
       </c>
       <c r="J217">
-        <v>13.947361359371399</v>
+        <v>10.537551897855501</v>
       </c>
       <c r="K217">
-        <v>4697.7</v>
+        <v>4801.4333333333298</v>
       </c>
       <c r="L217">
-        <v>7936</v>
+        <v>9794.2333333333299</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B218">
         <v>3000</v>
@@ -8578,28 +8578,28 @@
         <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E218">
         <v>0.8</v>
       </c>
       <c r="F218" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G218">
         <v>0.4</v>
       </c>
       <c r="I218">
-        <v>1182.5999999999999</v>
+        <v>1174.2666666666601</v>
       </c>
       <c r="J218">
-        <v>12.101239605924601</v>
+        <v>11.2158617839003</v>
       </c>
       <c r="K218">
-        <v>8018.6333333333296</v>
+        <v>4659.9333333333298</v>
       </c>
       <c r="L218">
-        <v>16350.333333333299</v>
+        <v>9818.8333333333303</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
@@ -8613,33 +8613,33 @@
         <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E219">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F219" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G219">
         <v>0.4</v>
       </c>
       <c r="I219">
-        <v>1185.2666666666601</v>
+        <v>1175</v>
       </c>
       <c r="J219">
-        <v>18.7722016704369</v>
+        <v>21.126602503321099</v>
       </c>
       <c r="K219">
-        <v>7131.7</v>
+        <v>10101.0333333333</v>
       </c>
       <c r="L219">
-        <v>13934.8</v>
+        <v>19776.099999999999</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B220">
         <v>3000</v>
@@ -8648,28 +8648,28 @@
         <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E220">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F220" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G220">
         <v>0.4</v>
       </c>
       <c r="I220">
-        <v>1186.06666666666</v>
+        <v>1176.13333333333</v>
       </c>
       <c r="J220">
-        <v>14.184341914786</v>
+        <v>12.0546901891154</v>
       </c>
       <c r="K220">
-        <v>4246.5333333333301</v>
+        <v>8196.6666666666606</v>
       </c>
       <c r="L220">
-        <v>7840.1</v>
+        <v>19652.0333333333</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
@@ -8680,42 +8680,42 @@
         <v>3000</v>
       </c>
       <c r="C221" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D221" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E221">
         <v>0.8</v>
       </c>
       <c r="F221" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G221">
         <v>0.4</v>
       </c>
       <c r="I221">
-        <v>1187</v>
+        <v>1178.4666666666601</v>
       </c>
       <c r="J221">
-        <v>14.6946702356103</v>
+        <v>13.6984995123148</v>
       </c>
       <c r="K221">
-        <v>7075.2666666666601</v>
+        <v>6958.8666666666604</v>
       </c>
       <c r="L221">
-        <v>14628.9</v>
+        <v>14318.833333333299</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B222">
         <v>3000</v>
       </c>
       <c r="C222" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D222" t="s">
         <v>16</v>
@@ -8724,22 +8724,22 @@
         <v>0.8</v>
       </c>
       <c r="F222" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G222">
         <v>0.4</v>
       </c>
       <c r="I222">
-        <v>1187.06666666666</v>
+        <v>1178.5999999999999</v>
       </c>
       <c r="J222">
-        <v>14.391973071434199</v>
+        <v>20.094111907056998</v>
       </c>
       <c r="K222">
-        <v>3788.2666666666601</v>
+        <v>9020.2666666666591</v>
       </c>
       <c r="L222">
-        <v>7930.6</v>
+        <v>17381.099999999999</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
@@ -8753,28 +8753,28 @@
         <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E223">
         <v>0.8</v>
       </c>
       <c r="F223" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G223">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I223">
-        <v>1187.2666666666601</v>
+        <v>1178.86666666666</v>
       </c>
       <c r="J223">
-        <v>16.552811107348301</v>
+        <v>14.493063474948499</v>
       </c>
       <c r="K223">
-        <v>3729.5333333333301</v>
+        <v>3816.4666666666599</v>
       </c>
       <c r="L223">
-        <v>7983.4</v>
+        <v>8142.3333333333303</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
@@ -8788,28 +8788,28 @@
         <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E224">
         <v>0.7</v>
       </c>
       <c r="F224" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G224">
         <v>0.4</v>
       </c>
       <c r="I224">
-        <v>1188.3333333333301</v>
+        <v>1181.2</v>
       </c>
       <c r="J224">
-        <v>14.255603186895399</v>
+        <v>14.675149062275301</v>
       </c>
       <c r="K224">
-        <v>3937.3333333333298</v>
+        <v>3761.8</v>
       </c>
       <c r="L224">
-        <v>7784.6</v>
+        <v>8164.6666666666597</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
@@ -8820,66 +8820,66 @@
         <v>3000</v>
       </c>
       <c r="C225" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E225">
         <v>0.8</v>
       </c>
       <c r="F225" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G225">
         <v>0.4</v>
       </c>
       <c r="I225">
-        <v>1191.06666666666</v>
+        <v>1181.3333333333301</v>
       </c>
       <c r="J225">
-        <v>17.601010072025801</v>
+        <v>16.791532257526502</v>
       </c>
       <c r="K225">
-        <v>4035.2666666666601</v>
+        <v>4605.5</v>
       </c>
       <c r="L225">
-        <v>6933.0666666666602</v>
+        <v>8577.2000000000007</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B226">
         <v>3000</v>
       </c>
       <c r="C226" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D226" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E226">
         <v>0.8</v>
       </c>
       <c r="F226" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G226">
         <v>0.4</v>
       </c>
       <c r="I226">
-        <v>1191.5999999999999</v>
+        <v>1181.8</v>
       </c>
       <c r="J226">
-        <v>14.582180906846499</v>
+        <v>18.635807826153702</v>
       </c>
       <c r="K226">
-        <v>3215.9333333333302</v>
+        <v>9741.2999999999993</v>
       </c>
       <c r="L226">
-        <v>7014.5</v>
+        <v>17452.400000000001</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
@@ -8893,28 +8893,28 @@
         <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E227">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F227" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G227">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I227">
-        <v>1191.8</v>
+        <v>1190.06666666666</v>
       </c>
       <c r="J227">
-        <v>20.155065533673302</v>
+        <v>15.701238450800201</v>
       </c>
       <c r="K227">
-        <v>6191.9333333333298</v>
+        <v>9273</v>
       </c>
       <c r="L227">
-        <v>13724.8</v>
+        <v>17307.433333333302</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
@@ -8928,28 +8928,28 @@
         <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E228">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F228" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G228">
         <v>0.4</v>
       </c>
       <c r="I228">
-        <v>1192.13333333333</v>
+        <v>1190.13333333333</v>
       </c>
       <c r="J228">
-        <v>13.504896231449599</v>
+        <v>14.5229320578027</v>
       </c>
       <c r="K228">
-        <v>6902.2</v>
+        <v>7459.6333333333296</v>
       </c>
       <c r="L228">
-        <v>14169.6333333333</v>
+        <v>17328.733333333301</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
@@ -8960,31 +8960,31 @@
         <v>3000</v>
       </c>
       <c r="C229" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E229">
         <v>0.8</v>
       </c>
       <c r="F229" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G229">
         <v>0.4</v>
       </c>
       <c r="I229">
-        <v>1192.93333333333</v>
+        <v>1190.5333333333299</v>
       </c>
       <c r="J229">
-        <v>19.675591195409801</v>
+        <v>17.760880859036401</v>
       </c>
       <c r="K229">
-        <v>5768.6</v>
+        <v>9149.8666666666595</v>
       </c>
       <c r="L229">
-        <v>14441.833333333299</v>
+        <v>17402.8</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
@@ -8998,28 +8998,28 @@
         <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E230">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F230" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G230">
         <v>0.2</v>
       </c>
       <c r="I230">
-        <v>1193.2</v>
+        <v>1191.7333333333299</v>
       </c>
       <c r="J230">
-        <v>18.151951226612798</v>
+        <v>12.0524778457469</v>
       </c>
       <c r="K230">
-        <v>5246.0333333333301</v>
+        <v>7661.2</v>
       </c>
       <c r="L230">
-        <v>13765.2</v>
+        <v>17402.733333333301</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
@@ -9033,28 +9033,28 @@
         <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E231">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F231" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G231">
         <v>0.4</v>
       </c>
       <c r="I231">
-        <v>1193.2</v>
+        <v>1191.8</v>
       </c>
       <c r="J231">
-        <v>13.550891729575</v>
+        <v>20.155065533673302</v>
       </c>
       <c r="K231">
-        <v>6681.9</v>
+        <v>6191.9333333333298</v>
       </c>
       <c r="L231">
-        <v>13882.4333333333</v>
+        <v>13724.8</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
@@ -9068,28 +9068,28 @@
         <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E232">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F232" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G232">
         <v>0.2</v>
       </c>
       <c r="I232">
-        <v>1193.4666666666601</v>
+        <v>1192.5333333333299</v>
       </c>
       <c r="J232">
-        <v>11.4185035018702</v>
+        <v>13.8172195305551</v>
       </c>
       <c r="K232">
-        <v>6796.8333333333303</v>
+        <v>8779.0333333333292</v>
       </c>
       <c r="L232">
-        <v>13880.3</v>
+        <v>17255.0333333333</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
@@ -9103,28 +9103,28 @@
         <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E233">
         <v>0.8</v>
       </c>
       <c r="F233" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G233">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I233">
-        <v>1193.86666666666</v>
+        <v>1193.13333333333</v>
       </c>
       <c r="J233">
-        <v>13.3359997333866</v>
+        <v>14.176819891013</v>
       </c>
       <c r="K233">
-        <v>7517.8</v>
+        <v>9550.2000000000007</v>
       </c>
       <c r="L233">
-        <v>14248.266666666599</v>
+        <v>17347.266666666601</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
@@ -9138,10 +9138,10 @@
         <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E234">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F234" t="s">
         <v>11</v>
@@ -9150,16 +9150,16 @@
         <v>0.4</v>
       </c>
       <c r="I234">
-        <v>1194.5333333333299</v>
+        <v>1193.2</v>
       </c>
       <c r="J234">
-        <v>12.4465077654559</v>
+        <v>13.550891729575</v>
       </c>
       <c r="K234">
-        <v>6853.2666666666601</v>
+        <v>6681.9</v>
       </c>
       <c r="L234">
-        <v>13737.1333333333</v>
+        <v>13882.4333333333</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
@@ -9173,28 +9173,28 @@
         <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E235">
         <v>0.8</v>
       </c>
       <c r="F235" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G235">
         <v>0.2</v>
       </c>
       <c r="I235">
-        <v>1194.6666666666599</v>
+        <v>1193.4666666666601</v>
       </c>
       <c r="J235">
-        <v>14.360439485692</v>
+        <v>11.4185035018702</v>
       </c>
       <c r="K235">
-        <v>7255.3666666666604</v>
+        <v>6796.8333333333303</v>
       </c>
       <c r="L235">
-        <v>14106.1</v>
+        <v>13880.3</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
@@ -9208,28 +9208,28 @@
         <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E236">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F236" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G236">
         <v>0.4</v>
       </c>
       <c r="I236">
-        <v>1194.6666666666599</v>
+        <v>1193.86666666666</v>
       </c>
       <c r="J236">
-        <v>10.724841361168099</v>
+        <v>12.197631828442001</v>
       </c>
       <c r="K236">
-        <v>7082.5333333333301</v>
+        <v>9216.7666666666591</v>
       </c>
       <c r="L236">
-        <v>14128.3</v>
+        <v>17276</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
@@ -9243,28 +9243,28 @@
         <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E237">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F237" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G237">
         <v>0.4</v>
       </c>
       <c r="I237">
-        <v>1195.4000000000001</v>
+        <v>1194.5333333333299</v>
       </c>
       <c r="J237">
-        <v>12.438113468957599</v>
+        <v>12.4465077654559</v>
       </c>
       <c r="K237">
-        <v>7150.9666666666599</v>
+        <v>6853.2666666666601</v>
       </c>
       <c r="L237">
-        <v>13902.5666666666</v>
+        <v>13737.1333333333</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
@@ -9278,33 +9278,33 @@
         <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E238">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F238" t="s">
         <v>12</v>
       </c>
       <c r="G238">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I238">
-        <v>1195.93333333333</v>
+        <v>1195.4000000000001</v>
       </c>
       <c r="J238">
-        <v>15.777480435382801</v>
+        <v>12.438113468957599</v>
       </c>
       <c r="K238">
-        <v>6694.8333333333303</v>
+        <v>7150.9666666666599</v>
       </c>
       <c r="L238">
-        <v>13724.2</v>
+        <v>13902.5666666666</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B239">
         <v>3000</v>
@@ -9313,28 +9313,28 @@
         <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E239">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F239" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G239">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I239">
-        <v>1197.2666666666601</v>
+        <v>1195.93333333333</v>
       </c>
       <c r="J239">
-        <v>14.9174022165016</v>
+        <v>15.777480435382801</v>
       </c>
       <c r="K239">
-        <v>2935.13333333333</v>
+        <v>6694.8333333333303</v>
       </c>
       <c r="L239">
-        <v>6937.2333333333299</v>
+        <v>13724.2</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
@@ -9348,28 +9348,28 @@
         <v>9</v>
       </c>
       <c r="D240" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E240">
         <v>0.7</v>
       </c>
       <c r="F240" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G240">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I240">
-        <v>1197.5333333333299</v>
+        <v>1197.5999999999999</v>
       </c>
       <c r="J240">
-        <v>12.9479299074751</v>
+        <v>12.893409169028899</v>
       </c>
       <c r="K240">
-        <v>5131.6666666666597</v>
+        <v>6395.0666666666602</v>
       </c>
       <c r="L240">
-        <v>13856.5</v>
+        <v>13735.366666666599</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
@@ -9383,33 +9383,33 @@
         <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E241">
         <v>0.7</v>
       </c>
       <c r="F241" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G241">
         <v>0.2</v>
       </c>
       <c r="I241">
-        <v>1197.5999999999999</v>
+        <v>1197.93333333333</v>
       </c>
       <c r="J241">
-        <v>12.893409169028899</v>
+        <v>9.9127303111817806</v>
       </c>
       <c r="K241">
-        <v>6395.0666666666602</v>
+        <v>8144.5333333333301</v>
       </c>
       <c r="L241">
-        <v>13735.366666666599</v>
+        <v>17268.966666666602</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B242">
         <v>3000</v>
@@ -9418,33 +9418,33 @@
         <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E242">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F242" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G242">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I242">
-        <v>1198.2666666666601</v>
+        <v>1198.86666666666</v>
       </c>
       <c r="J242">
-        <v>12.184507467362801</v>
+        <v>17.7665103182614</v>
       </c>
       <c r="K242">
-        <v>6615.5666666666602</v>
+        <v>3497.3333333333298</v>
       </c>
       <c r="L242">
-        <v>13822.0333333333</v>
+        <v>6907.2</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B243">
         <v>3000</v>
@@ -9453,7 +9453,7 @@
         <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E243">
         <v>0.8</v>
@@ -9462,24 +9462,24 @@
         <v>12</v>
       </c>
       <c r="G243">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I243">
-        <v>1198.86666666666</v>
+        <v>1199</v>
       </c>
       <c r="J243">
-        <v>17.7665103182614</v>
+        <v>9.2772122249448703</v>
       </c>
       <c r="K243">
-        <v>3497.3333333333298</v>
+        <v>6965.3666666666604</v>
       </c>
       <c r="L243">
-        <v>6907.2</v>
+        <v>13894.8</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B244">
         <v>3000</v>
@@ -9488,28 +9488,28 @@
         <v>9</v>
       </c>
       <c r="D244" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E244">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F244" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G244">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I244">
-        <v>1199</v>
+        <v>1199.5999999999999</v>
       </c>
       <c r="J244">
-        <v>9.2772122249448703</v>
+        <v>16.2020574825133</v>
       </c>
       <c r="K244">
-        <v>6965.3666666666604</v>
+        <v>3435.1</v>
       </c>
       <c r="L244">
-        <v>13894.8</v>
+        <v>7376.9</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
@@ -9523,7 +9523,7 @@
         <v>9</v>
       </c>
       <c r="D245" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E245">
         <v>0.8</v>
@@ -9558,28 +9558,28 @@
         <v>9</v>
       </c>
       <c r="D246" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E246">
         <v>0.8</v>
       </c>
       <c r="F246" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G246">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I246">
-        <v>1200.4000000000001</v>
+        <v>1201.5999999999999</v>
       </c>
       <c r="J246">
-        <v>14.1741548836841</v>
+        <v>15.793669617919701</v>
       </c>
       <c r="K246">
-        <v>3681.9666666666599</v>
+        <v>4231.1000000000004</v>
       </c>
       <c r="L246">
-        <v>7001.2</v>
+        <v>7339.4666666666599</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
@@ -9593,28 +9593,28 @@
         <v>9</v>
       </c>
       <c r="D247" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E247">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F247" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G247">
         <v>0.2</v>
       </c>
       <c r="I247">
-        <v>1201.2</v>
+        <v>1201.86666666666</v>
       </c>
       <c r="J247">
-        <v>19.3673264374134</v>
+        <v>15.560062839061899</v>
       </c>
       <c r="K247">
-        <v>3454.5</v>
+        <v>3729.1</v>
       </c>
       <c r="L247">
-        <v>6949.7333333333299</v>
+        <v>6909.4333333333298</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
@@ -9628,28 +9628,28 @@
         <v>9</v>
       </c>
       <c r="D248" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E248">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F248" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G248">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I248">
-        <v>1201.86666666666</v>
+        <v>1202.13333333333</v>
       </c>
       <c r="J248">
-        <v>15.560062839061899</v>
+        <v>11.1227494602528</v>
       </c>
       <c r="K248">
-        <v>3729.1</v>
+        <v>4117.2333333333299</v>
       </c>
       <c r="L248">
-        <v>6909.4333333333298</v>
+        <v>7240.3333333333303</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
@@ -9663,28 +9663,28 @@
         <v>9</v>
       </c>
       <c r="D249" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E249">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F249" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G249">
         <v>0.2</v>
       </c>
       <c r="I249">
-        <v>1202.06666666666</v>
+        <v>1202.86666666666</v>
       </c>
       <c r="J249">
-        <v>11.9273728130809</v>
+        <v>14.354403118516901</v>
       </c>
       <c r="K249">
-        <v>3865.9</v>
+        <v>4277.3</v>
       </c>
       <c r="L249">
-        <v>6914.4333333333298</v>
+        <v>8368.0333333333292</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
@@ -9698,28 +9698,28 @@
         <v>9</v>
       </c>
       <c r="D250" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E250">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F250" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G250">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I250">
-        <v>1202.5999999999999</v>
+        <v>1203.4000000000001</v>
       </c>
       <c r="J250">
-        <v>15.047923444781301</v>
+        <v>15.2241036955655</v>
       </c>
       <c r="K250">
-        <v>3260.9</v>
+        <v>3150.8</v>
       </c>
       <c r="L250">
-        <v>6916.8333333333303</v>
+        <v>6867.1</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
@@ -9733,28 +9733,28 @@
         <v>9</v>
       </c>
       <c r="D251" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E251">
         <v>0.7</v>
       </c>
       <c r="F251" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G251">
         <v>0.4</v>
       </c>
       <c r="I251">
-        <v>1202.7333333333299</v>
+        <v>1203.5333333333299</v>
       </c>
       <c r="J251">
-        <v>8.2054182641038391</v>
+        <v>10.566403782218799</v>
       </c>
       <c r="K251">
-        <v>3690.3333333333298</v>
+        <v>4245.0333333333301</v>
       </c>
       <c r="L251">
-        <v>6956.4666666666599</v>
+        <v>7306.6666666666597</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
@@ -9768,28 +9768,28 @@
         <v>9</v>
       </c>
       <c r="D252" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E252">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F252" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G252">
         <v>0.2</v>
       </c>
       <c r="I252">
-        <v>1202.93333333333</v>
+        <v>1203.5999999999999</v>
       </c>
       <c r="J252">
-        <v>13.383904097418201</v>
+        <v>14.8898175498112</v>
       </c>
       <c r="K252">
-        <v>3455.13333333333</v>
+        <v>3227.4666666666599</v>
       </c>
       <c r="L252">
-        <v>6888.8</v>
+        <v>6903.6333333333296</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
@@ -9803,10 +9803,10 @@
         <v>9</v>
       </c>
       <c r="D253" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E253">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F253" t="s">
         <v>11</v>
@@ -9815,16 +9815,16 @@
         <v>0.4</v>
       </c>
       <c r="I253">
-        <v>1203.4000000000001</v>
+        <v>1203.7333333333299</v>
       </c>
       <c r="J253">
-        <v>15.2241036955655</v>
+        <v>10.914618128404101</v>
       </c>
       <c r="K253">
-        <v>3150.8</v>
+        <v>3519.5333333333301</v>
       </c>
       <c r="L253">
-        <v>6867.1</v>
+        <v>6898.3</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
@@ -9838,28 +9838,28 @@
         <v>9</v>
       </c>
       <c r="D254" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E254">
         <v>0.8</v>
       </c>
       <c r="F254" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G254">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I254">
-        <v>1203.5999999999999</v>
+        <v>1203.8</v>
       </c>
       <c r="J254">
-        <v>14.8898175498112</v>
+        <v>12.3217964058276</v>
       </c>
       <c r="K254">
-        <v>3227.4666666666599</v>
+        <v>4524.3999999999996</v>
       </c>
       <c r="L254">
-        <v>6903.6333333333296</v>
+        <v>8695.7000000000007</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
@@ -9873,28 +9873,28 @@
         <v>9</v>
       </c>
       <c r="D255" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E255">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F255" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G255">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I255">
-        <v>1203.7333333333299</v>
+        <v>1203.86666666666</v>
       </c>
       <c r="J255">
-        <v>10.914618128404101</v>
+        <v>13.5541711497072</v>
       </c>
       <c r="K255">
-        <v>3519.5333333333301</v>
+        <v>3476.7333333333299</v>
       </c>
       <c r="L255">
-        <v>6898.3</v>
+        <v>7166.1666666666597</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
@@ -9908,28 +9908,28 @@
         <v>9</v>
       </c>
       <c r="D256" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E256">
         <v>0.7</v>
       </c>
       <c r="F256" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G256">
         <v>0.4</v>
       </c>
       <c r="I256">
-        <v>1203.93333333333</v>
+        <v>1204.4666666666601</v>
       </c>
       <c r="J256">
-        <v>12.6857750606294</v>
+        <v>18.093706702116599</v>
       </c>
       <c r="K256">
-        <v>3710.9</v>
+        <v>3728.6666666666601</v>
       </c>
       <c r="L256">
-        <v>6896.8</v>
+        <v>6869.2</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
@@ -9943,28 +9943,28 @@
         <v>9</v>
       </c>
       <c r="D257" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E257">
         <v>0.7</v>
       </c>
       <c r="F257" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G257">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I257">
-        <v>1204.4666666666601</v>
+        <v>1205.2</v>
       </c>
       <c r="J257">
-        <v>18.093706702116599</v>
+        <v>13.570556362949899</v>
       </c>
       <c r="K257">
-        <v>3728.6666666666601</v>
+        <v>3863.63333333333</v>
       </c>
       <c r="L257">
-        <v>6869.2</v>
+        <v>7350.8333333333303</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
@@ -9978,7 +9978,7 @@
         <v>9</v>
       </c>
       <c r="D258" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E258">
         <v>0.7</v>
